--- a/data/word_list_7.xlsx
+++ b/data/word_list_7.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K345"/>
+  <dimension ref="A1:G345"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -365,52 +365,32 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>select</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>aoa_german_comb</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>word_freq</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>aoa_german_b_m</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>aoa_german_s_m</t>
-        </is>
-      </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>aoa_german_l_m</t>
+          <t>aoa_mor</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>aoa_german_comb</t>
+          <t>clt</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>clt</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
           <t>english</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>aoa_mor</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>aoa_rating_english</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>select</t>
         </is>
       </c>
     </row>
@@ -423,10 +403,7 @@
       <c r="C2">
         <v>7.83</v>
       </c>
-      <c r="F2">
-        <v>7.83</v>
-      </c>
-      <c r="H2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>prairie</t>
         </is>
@@ -441,10 +418,7 @@
       <c r="C3">
         <v>7.83</v>
       </c>
-      <c r="F3">
-        <v>7.83</v>
-      </c>
-      <c r="H3" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>product</t>
         </is>
@@ -459,10 +433,7 @@
       <c r="C4">
         <v>7.83</v>
       </c>
-      <c r="F4">
-        <v>7.83</v>
-      </c>
-      <c r="H4" t="inlineStr">
+      <c r="G4" t="inlineStr">
         <is>
           <t>change</t>
         </is>
@@ -477,10 +448,7 @@
       <c r="C5">
         <v>7.84</v>
       </c>
-      <c r="F5">
-        <v>7.84</v>
-      </c>
-      <c r="H5" t="inlineStr">
+      <c r="G5" t="inlineStr">
         <is>
           <t>burden</t>
         </is>
@@ -495,10 +463,7 @@
       <c r="C6">
         <v>7.84</v>
       </c>
-      <c r="F6">
-        <v>7.84</v>
-      </c>
-      <c r="H6" t="inlineStr">
+      <c r="G6" t="inlineStr">
         <is>
           <t>plantation</t>
         </is>
@@ -513,10 +478,7 @@
       <c r="C7">
         <v>7.84</v>
       </c>
-      <c r="F7">
-        <v>7.84</v>
-      </c>
-      <c r="H7" t="inlineStr">
+      <c r="G7" t="inlineStr">
         <is>
           <t>respect</t>
         </is>
@@ -531,10 +493,7 @@
       <c r="C8">
         <v>7.84</v>
       </c>
-      <c r="F8">
-        <v>7.84</v>
-      </c>
-      <c r="H8" t="inlineStr">
+      <c r="G8" t="inlineStr">
         <is>
           <t>robust</t>
         </is>
@@ -549,10 +508,7 @@
       <c r="C9">
         <v>7.85</v>
       </c>
-      <c r="F9">
-        <v>7.85</v>
-      </c>
-      <c r="H9" t="inlineStr">
+      <c r="G9" t="inlineStr">
         <is>
           <t>fable</t>
         </is>
@@ -567,10 +523,7 @@
       <c r="C10">
         <v>7.85</v>
       </c>
-      <c r="F10">
-        <v>7.85</v>
-      </c>
-      <c r="H10" t="inlineStr">
+      <c r="G10" t="inlineStr">
         <is>
           <t>whimper</t>
         </is>
@@ -585,10 +538,7 @@
       <c r="C11">
         <v>7.86</v>
       </c>
-      <c r="F11">
-        <v>7.86</v>
-      </c>
-      <c r="H11" t="inlineStr">
+      <c r="G11" t="inlineStr">
         <is>
           <t>eternity</t>
         </is>
@@ -603,10 +553,7 @@
       <c r="C12">
         <v>7.86</v>
       </c>
-      <c r="F12">
-        <v>7.86</v>
-      </c>
-      <c r="H12" t="inlineStr">
+      <c r="G12" t="inlineStr">
         <is>
           <t>shortage</t>
         </is>
@@ -621,10 +568,7 @@
       <c r="C13">
         <v>7.86</v>
       </c>
-      <c r="F13">
-        <v>7.86</v>
-      </c>
-      <c r="H13" t="inlineStr">
+      <c r="G13" t="inlineStr">
         <is>
           <t>transport</t>
         </is>
@@ -639,10 +583,7 @@
       <c r="C14">
         <v>7.88</v>
       </c>
-      <c r="F14">
-        <v>7.88</v>
-      </c>
-      <c r="H14" t="inlineStr">
+      <c r="G14" t="inlineStr">
         <is>
           <t>author</t>
         </is>
@@ -654,19 +595,13 @@
           <t>bison</t>
         </is>
       </c>
-      <c r="B15">
-        <v>0.7</v>
-      </c>
       <c r="C15">
         <v>7.88</v>
       </c>
       <c r="D15">
-        <v>4.8</v>
-      </c>
-      <c r="F15">
-        <v>7.88</v>
-      </c>
-      <c r="H15" t="inlineStr">
+        <v>0.7</v>
+      </c>
+      <c r="G15" t="inlineStr">
         <is>
           <t>bison</t>
         </is>
@@ -681,10 +616,7 @@
       <c r="C16">
         <v>7.88</v>
       </c>
-      <c r="F16">
-        <v>7.88</v>
-      </c>
-      <c r="H16" t="inlineStr">
+      <c r="G16" t="inlineStr">
         <is>
           <t>employ</t>
         </is>
@@ -699,10 +631,7 @@
       <c r="C17">
         <v>7.88</v>
       </c>
-      <c r="F17">
-        <v>7.88</v>
-      </c>
-      <c r="H17" t="inlineStr">
+      <c r="G17" t="inlineStr">
         <is>
           <t>exhausted</t>
         </is>
@@ -717,10 +646,7 @@
       <c r="C18">
         <v>7.88</v>
       </c>
-      <c r="F18">
-        <v>7.88</v>
-      </c>
-      <c r="H18" t="inlineStr">
+      <c r="G18" t="inlineStr">
         <is>
           <t>spa</t>
         </is>
@@ -735,10 +661,7 @@
       <c r="C19">
         <v>7.88</v>
       </c>
-      <c r="F19">
-        <v>7.88</v>
-      </c>
-      <c r="H19" t="inlineStr">
+      <c r="G19" t="inlineStr">
         <is>
           <t>talent</t>
         </is>
@@ -753,10 +676,7 @@
       <c r="C20">
         <v>7.88</v>
       </c>
-      <c r="F20">
-        <v>7.88</v>
-      </c>
-      <c r="H20" t="inlineStr">
+      <c r="G20" t="inlineStr">
         <is>
           <t>keyboard</t>
         </is>
@@ -771,10 +691,7 @@
       <c r="C21">
         <v>7.88</v>
       </c>
-      <c r="F21">
-        <v>7.88</v>
-      </c>
-      <c r="H21" t="inlineStr">
+      <c r="G21" t="inlineStr">
         <is>
           <t>boisterousness</t>
         </is>
@@ -789,10 +706,7 @@
       <c r="C22">
         <v>7.88</v>
       </c>
-      <c r="F22">
-        <v>7.88</v>
-      </c>
-      <c r="H22" t="inlineStr">
+      <c r="G22" t="inlineStr">
         <is>
           <t>rent out</t>
         </is>
@@ -807,10 +721,7 @@
       <c r="C23">
         <v>7.89</v>
       </c>
-      <c r="F23">
-        <v>7.89</v>
-      </c>
-      <c r="H23" t="inlineStr">
+      <c r="G23" t="inlineStr">
         <is>
           <t>bass</t>
         </is>
@@ -825,10 +736,7 @@
       <c r="C24">
         <v>7.89</v>
       </c>
-      <c r="F24">
-        <v>7.89</v>
-      </c>
-      <c r="H24" t="inlineStr">
+      <c r="G24" t="inlineStr">
         <is>
           <t>note</t>
         </is>
@@ -843,10 +751,7 @@
       <c r="C25">
         <v>7.89</v>
       </c>
-      <c r="F25">
-        <v>7.89</v>
-      </c>
-      <c r="H25" t="inlineStr">
+      <c r="G25" t="inlineStr">
         <is>
           <t>pulse</t>
         </is>
@@ -861,10 +766,7 @@
       <c r="C26">
         <v>7.89</v>
       </c>
-      <c r="F26">
-        <v>7.89</v>
-      </c>
-      <c r="H26" t="inlineStr">
+      <c r="G26" t="inlineStr">
         <is>
           <t>safe</t>
         </is>
@@ -879,10 +781,7 @@
       <c r="C27">
         <v>7.9</v>
       </c>
-      <c r="F27">
-        <v>7.9</v>
-      </c>
-      <c r="H27" t="inlineStr">
+      <c r="G27" t="inlineStr">
         <is>
           <t>sequence</t>
         </is>
@@ -897,10 +796,7 @@
       <c r="C28">
         <v>7.9</v>
       </c>
-      <c r="F28">
-        <v>7.9</v>
-      </c>
-      <c r="H28" t="inlineStr">
+      <c r="G28" t="inlineStr">
         <is>
           <t>balance</t>
         </is>
@@ -915,10 +811,7 @@
       <c r="C29">
         <v>7.9</v>
       </c>
-      <c r="F29">
-        <v>7.9</v>
-      </c>
-      <c r="H29" t="inlineStr">
+      <c r="G29" t="inlineStr">
         <is>
           <t>pack</t>
         </is>
@@ -933,10 +826,7 @@
       <c r="C30">
         <v>7.91</v>
       </c>
-      <c r="F30">
-        <v>7.91</v>
-      </c>
-      <c r="H30" t="inlineStr">
+      <c r="G30" t="inlineStr">
         <is>
           <t>baguette</t>
         </is>
@@ -951,10 +841,7 @@
       <c r="C31">
         <v>7.91</v>
       </c>
-      <c r="F31">
-        <v>7.91</v>
-      </c>
-      <c r="H31" t="inlineStr">
+      <c r="G31" t="inlineStr">
         <is>
           <t>confirm</t>
         </is>
@@ -969,10 +856,7 @@
       <c r="C32">
         <v>7.91</v>
       </c>
-      <c r="F32">
-        <v>7.91</v>
-      </c>
-      <c r="H32" t="inlineStr">
+      <c r="G32" t="inlineStr">
         <is>
           <t>sinister doings</t>
         </is>
@@ -987,19 +871,13 @@
       <c r="C33">
         <v>7.91</v>
       </c>
-      <c r="F33">
-        <v>7.91</v>
-      </c>
-      <c r="H33" t="inlineStr">
+      <c r="E33">
+        <v>5.21</v>
+      </c>
+      <c r="G33" t="inlineStr">
         <is>
           <t>violin</t>
         </is>
-      </c>
-      <c r="I33">
-        <v>5.21</v>
-      </c>
-      <c r="J33">
-        <v>7.45</v>
       </c>
     </row>
     <row r="34">
@@ -1011,10 +889,7 @@
       <c r="C34">
         <v>7.92</v>
       </c>
-      <c r="F34">
-        <v>7.92</v>
-      </c>
-      <c r="H34" t="inlineStr">
+      <c r="G34" t="inlineStr">
         <is>
           <t>stamina</t>
         </is>
@@ -1029,10 +904,7 @@
       <c r="C35">
         <v>7.92</v>
       </c>
-      <c r="F35">
-        <v>7.92</v>
-      </c>
-      <c r="H35" t="inlineStr">
+      <c r="G35" t="inlineStr">
         <is>
           <t>advise</t>
         </is>
@@ -1047,10 +919,7 @@
       <c r="C36">
         <v>7.92</v>
       </c>
-      <c r="F36">
-        <v>7.92</v>
-      </c>
-      <c r="H36" t="inlineStr">
+      <c r="G36" t="inlineStr">
         <is>
           <t>modern</t>
         </is>
@@ -1065,10 +934,7 @@
       <c r="C37">
         <v>7.93</v>
       </c>
-      <c r="F37">
-        <v>7.93</v>
-      </c>
-      <c r="H37" t="inlineStr">
+      <c r="G37" t="inlineStr">
         <is>
           <t>property</t>
         </is>
@@ -1083,10 +949,7 @@
       <c r="C38">
         <v>7.93</v>
       </c>
-      <c r="F38">
-        <v>7.93</v>
-      </c>
-      <c r="H38" t="inlineStr">
+      <c r="G38" t="inlineStr">
         <is>
           <t>experiment</t>
         </is>
@@ -1101,10 +964,7 @@
       <c r="C39">
         <v>7.93</v>
       </c>
-      <c r="F39">
-        <v>7.93</v>
-      </c>
-      <c r="H39" t="inlineStr">
+      <c r="G39" t="inlineStr">
         <is>
           <t>humourless</t>
         </is>
@@ -1119,10 +979,7 @@
       <c r="C40">
         <v>7.93</v>
       </c>
-      <c r="F40">
-        <v>7.93</v>
-      </c>
-      <c r="H40" t="inlineStr">
+      <c r="G40" t="inlineStr">
         <is>
           <t>lentil</t>
         </is>
@@ -1137,10 +994,7 @@
       <c r="C41">
         <v>7.93</v>
       </c>
-      <c r="F41">
-        <v>7.93</v>
-      </c>
-      <c r="H41" t="inlineStr">
+      <c r="G41" t="inlineStr">
         <is>
           <t>broke</t>
         </is>
@@ -1155,10 +1009,7 @@
       <c r="C42">
         <v>7.93</v>
       </c>
-      <c r="F42">
-        <v>7.93</v>
-      </c>
-      <c r="H42" t="inlineStr">
+      <c r="G42" t="inlineStr">
         <is>
           <t>reaction</t>
         </is>
@@ -1173,10 +1024,7 @@
       <c r="C43">
         <v>7.93</v>
       </c>
-      <c r="F43">
-        <v>7.93</v>
-      </c>
-      <c r="H43" t="inlineStr">
+      <c r="G43" t="inlineStr">
         <is>
           <t>witness</t>
         </is>
@@ -1191,10 +1039,7 @@
       <c r="C44">
         <v>7.94</v>
       </c>
-      <c r="F44">
-        <v>7.94</v>
-      </c>
-      <c r="H44" t="inlineStr">
+      <c r="G44" t="inlineStr">
         <is>
           <t>bid</t>
         </is>
@@ -1209,10 +1054,7 @@
       <c r="C45">
         <v>7.94</v>
       </c>
-      <c r="F45">
-        <v>7.94</v>
-      </c>
-      <c r="H45" t="inlineStr">
+      <c r="G45" t="inlineStr">
         <is>
           <t>pro</t>
         </is>
@@ -1227,10 +1069,7 @@
       <c r="C46">
         <v>7.94</v>
       </c>
-      <c r="F46">
-        <v>7.94</v>
-      </c>
-      <c r="H46" t="inlineStr">
+      <c r="G46" t="inlineStr">
         <is>
           <t>govern</t>
         </is>
@@ -1245,10 +1084,7 @@
       <c r="C47">
         <v>7.94</v>
       </c>
-      <c r="F47">
-        <v>7.94</v>
-      </c>
-      <c r="H47" t="inlineStr">
+      <c r="G47" t="inlineStr">
         <is>
           <t>reptile</t>
         </is>
@@ -1260,19 +1096,13 @@
           <t>kranich</t>
         </is>
       </c>
-      <c r="B48">
-        <v>0.6899999999999999</v>
-      </c>
       <c r="C48">
         <v>7.95</v>
       </c>
       <c r="D48">
-        <v>4.6</v>
-      </c>
-      <c r="F48">
-        <v>7.95</v>
-      </c>
-      <c r="H48" t="inlineStr">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="G48" t="inlineStr">
         <is>
           <t>crane</t>
         </is>
@@ -1287,10 +1117,7 @@
       <c r="C49">
         <v>7.95</v>
       </c>
-      <c r="F49">
-        <v>7.95</v>
-      </c>
-      <c r="H49" t="inlineStr">
+      <c r="G49" t="inlineStr">
         <is>
           <t>paw</t>
         </is>
@@ -1305,10 +1132,7 @@
       <c r="C50">
         <v>7.96</v>
       </c>
-      <c r="F50">
-        <v>7.96</v>
-      </c>
-      <c r="H50" t="inlineStr">
+      <c r="G50" t="inlineStr">
         <is>
           <t>cockpit</t>
         </is>
@@ -1323,10 +1147,7 @@
       <c r="C51">
         <v>7.96</v>
       </c>
-      <c r="F51">
-        <v>7.96</v>
-      </c>
-      <c r="H51" t="inlineStr">
+      <c r="G51" t="inlineStr">
         <is>
           <t>loneliness</t>
         </is>
@@ -1341,10 +1162,7 @@
       <c r="C52">
         <v>7.96</v>
       </c>
-      <c r="F52">
-        <v>7.96</v>
-      </c>
-      <c r="H52" t="inlineStr">
+      <c r="G52" t="inlineStr">
         <is>
           <t>construct</t>
         </is>
@@ -1359,10 +1177,7 @@
       <c r="C53">
         <v>7.96</v>
       </c>
-      <c r="F53">
-        <v>7.96</v>
-      </c>
-      <c r="H53" t="inlineStr">
+      <c r="G53" t="inlineStr">
         <is>
           <t>rejoice</t>
         </is>
@@ -1377,10 +1192,7 @@
       <c r="C54">
         <v>7.96</v>
       </c>
-      <c r="F54">
-        <v>7.96</v>
-      </c>
-      <c r="H54" t="inlineStr">
+      <c r="G54" t="inlineStr">
         <is>
           <t>logical</t>
         </is>
@@ -1395,10 +1207,7 @@
       <c r="C55">
         <v>7.96</v>
       </c>
-      <c r="F55">
-        <v>7.96</v>
-      </c>
-      <c r="H55" t="inlineStr">
+      <c r="G55" t="inlineStr">
         <is>
           <t>enticing</t>
         </is>
@@ -1413,10 +1222,7 @@
       <c r="C56">
         <v>7.96</v>
       </c>
-      <c r="F56">
-        <v>7.96</v>
-      </c>
-      <c r="H56" t="inlineStr">
+      <c r="G56" t="inlineStr">
         <is>
           <t>overview</t>
         </is>
@@ -1431,10 +1237,7 @@
       <c r="C57">
         <v>8</v>
       </c>
-      <c r="F57">
-        <v>8</v>
-      </c>
-      <c r="H57" t="inlineStr">
+      <c r="G57" t="inlineStr">
         <is>
           <t>breathe a sigh of relief</t>
         </is>
@@ -1449,10 +1252,7 @@
       <c r="C58">
         <v>8</v>
       </c>
-      <c r="F58">
-        <v>8</v>
-      </c>
-      <c r="H58" t="inlineStr">
+      <c r="G58" t="inlineStr">
         <is>
           <t>set off</t>
         </is>
@@ -1467,10 +1267,7 @@
       <c r="C59">
         <v>8</v>
       </c>
-      <c r="F59">
-        <v>8</v>
-      </c>
-      <c r="H59" t="inlineStr">
+      <c r="G59" t="inlineStr">
         <is>
           <t>give reasons for</t>
         </is>
@@ -1482,19 +1279,13 @@
           <t>chauffeur</t>
         </is>
       </c>
-      <c r="B60">
-        <v>10.15</v>
-      </c>
       <c r="C60">
         <v>8</v>
       </c>
       <c r="D60">
-        <v>5</v>
-      </c>
-      <c r="F60">
-        <v>8</v>
-      </c>
-      <c r="H60" t="inlineStr">
+        <v>10.15</v>
+      </c>
+      <c r="G60" t="inlineStr">
         <is>
           <t>chauffeur</t>
         </is>
@@ -1509,10 +1300,7 @@
       <c r="C61">
         <v>8</v>
       </c>
-      <c r="F61">
-        <v>8</v>
-      </c>
-      <c r="H61" t="inlineStr">
+      <c r="G61" t="inlineStr">
         <is>
           <t>vain</t>
         </is>
@@ -1527,10 +1315,7 @@
       <c r="C62">
         <v>8</v>
       </c>
-      <c r="F62">
-        <v>8</v>
-      </c>
-      <c r="H62" t="inlineStr">
+      <c r="G62" t="inlineStr">
         <is>
           <t>fork junction</t>
         </is>
@@ -1545,10 +1330,7 @@
       <c r="C63">
         <v>8</v>
       </c>
-      <c r="F63">
-        <v>8</v>
-      </c>
-      <c r="H63" t="inlineStr">
+      <c r="G63" t="inlineStr">
         <is>
           <t>act</t>
         </is>
@@ -1563,19 +1345,13 @@
       <c r="C64">
         <v>8</v>
       </c>
-      <c r="F64">
-        <v>8</v>
-      </c>
-      <c r="H64" t="inlineStr">
+      <c r="E64">
+        <v>7.21</v>
+      </c>
+      <c r="G64" t="inlineStr">
         <is>
           <t>lobster</t>
         </is>
-      </c>
-      <c r="I64">
-        <v>7.21</v>
-      </c>
-      <c r="J64">
-        <v>6.9</v>
       </c>
     </row>
     <row r="65">
@@ -1587,10 +1363,7 @@
       <c r="C65">
         <v>8</v>
       </c>
-      <c r="F65">
-        <v>8</v>
-      </c>
-      <c r="H65" t="inlineStr">
+      <c r="G65" t="inlineStr">
         <is>
           <t>lily</t>
         </is>
@@ -1605,10 +1378,7 @@
       <c r="C66">
         <v>8</v>
       </c>
-      <c r="F66">
-        <v>8</v>
-      </c>
-      <c r="H66" t="inlineStr">
+      <c r="G66" t="inlineStr">
         <is>
           <t>powerless</t>
         </is>
@@ -1623,10 +1393,7 @@
       <c r="C67">
         <v>8</v>
       </c>
-      <c r="F67">
-        <v>8</v>
-      </c>
-      <c r="H67" t="inlineStr">
+      <c r="G67" t="inlineStr">
         <is>
           <t>speaker</t>
         </is>
@@ -1641,10 +1408,7 @@
       <c r="C68">
         <v>8</v>
       </c>
-      <c r="F68">
-        <v>8</v>
-      </c>
-      <c r="H68" t="inlineStr">
+      <c r="G68" t="inlineStr">
         <is>
           <t>refrain</t>
         </is>
@@ -1659,10 +1423,7 @@
       <c r="C69">
         <v>8</v>
       </c>
-      <c r="F69">
-        <v>8</v>
-      </c>
-      <c r="H69" t="inlineStr">
+      <c r="G69" t="inlineStr">
         <is>
           <t>flop</t>
         </is>
@@ -1677,10 +1438,7 @@
       <c r="C70">
         <v>8</v>
       </c>
-      <c r="F70">
-        <v>8</v>
-      </c>
-      <c r="H70" t="inlineStr">
+      <c r="G70" t="inlineStr">
         <is>
           <t>seal</t>
         </is>
@@ -1695,10 +1453,7 @@
       <c r="C71">
         <v>8</v>
       </c>
-      <c r="F71">
-        <v>8</v>
-      </c>
-      <c r="H71" t="inlineStr">
+      <c r="G71" t="inlineStr">
         <is>
           <t>increase</t>
         </is>
@@ -1713,10 +1468,7 @@
       <c r="C72">
         <v>8</v>
       </c>
-      <c r="F72">
-        <v>8</v>
-      </c>
-      <c r="H72" t="inlineStr">
+      <c r="G72" t="inlineStr">
         <is>
           <t>tourist</t>
         </is>
@@ -1731,10 +1483,7 @@
       <c r="C73">
         <v>8.02</v>
       </c>
-      <c r="F73">
-        <v>8.02</v>
-      </c>
-      <c r="H73" t="inlineStr">
+      <c r="G73" t="inlineStr">
         <is>
           <t>magnanimous</t>
         </is>
@@ -1746,19 +1495,13 @@
           <t>flamingo</t>
         </is>
       </c>
-      <c r="B74">
-        <v>0.37</v>
-      </c>
       <c r="C74">
         <v>8.039999999999999</v>
       </c>
       <c r="D74">
-        <v>4.65</v>
-      </c>
-      <c r="F74">
-        <v>8.039999999999999</v>
-      </c>
-      <c r="H74" t="inlineStr">
+        <v>0.37</v>
+      </c>
+      <c r="G74" t="inlineStr">
         <is>
           <t>flamingo</t>
         </is>
@@ -1773,10 +1516,7 @@
       <c r="C75">
         <v>8.039999999999999</v>
       </c>
-      <c r="F75">
-        <v>8.039999999999999</v>
-      </c>
-      <c r="H75" t="inlineStr">
+      <c r="G75" t="inlineStr">
         <is>
           <t>homecoming</t>
         </is>
@@ -1791,10 +1531,7 @@
       <c r="C76">
         <v>8.039999999999999</v>
       </c>
-      <c r="F76">
-        <v>8.039999999999999</v>
-      </c>
-      <c r="H76" t="inlineStr">
+      <c r="G76" t="inlineStr">
         <is>
           <t>practical</t>
         </is>
@@ -1809,10 +1546,7 @@
       <c r="C77">
         <v>8.039999999999999</v>
       </c>
-      <c r="F77">
-        <v>8.039999999999999</v>
-      </c>
-      <c r="H77" t="inlineStr">
+      <c r="G77" t="inlineStr">
         <is>
           <t>crimson</t>
         </is>
@@ -1827,10 +1561,7 @@
       <c r="C78">
         <v>8.050000000000001</v>
       </c>
-      <c r="F78">
-        <v>8.050000000000001</v>
-      </c>
-      <c r="H78" t="inlineStr">
+      <c r="G78" t="inlineStr">
         <is>
           <t>alp</t>
         </is>
@@ -1845,10 +1576,7 @@
       <c r="C79">
         <v>8.050000000000001</v>
       </c>
-      <c r="F79">
-        <v>8.050000000000001</v>
-      </c>
-      <c r="H79" t="inlineStr">
+      <c r="G79" t="inlineStr">
         <is>
           <t>approach</t>
         </is>
@@ -1863,10 +1591,7 @@
       <c r="C80">
         <v>8.050000000000001</v>
       </c>
-      <c r="F80">
-        <v>8.050000000000001</v>
-      </c>
-      <c r="H80" t="inlineStr">
+      <c r="G80" t="inlineStr">
         <is>
           <t>benign</t>
         </is>
@@ -1881,10 +1606,7 @@
       <c r="C81">
         <v>8.050000000000001</v>
       </c>
-      <c r="F81">
-        <v>8.050000000000001</v>
-      </c>
-      <c r="H81" t="inlineStr">
+      <c r="G81" t="inlineStr">
         <is>
           <t>expert</t>
         </is>
@@ -1896,19 +1618,13 @@
           <t>olive</t>
         </is>
       </c>
-      <c r="B82">
-        <v>1.68</v>
-      </c>
       <c r="C82">
         <v>8.050000000000001</v>
       </c>
       <c r="D82">
-        <v>5.63</v>
-      </c>
-      <c r="F82">
-        <v>8.050000000000001</v>
-      </c>
-      <c r="H82" t="inlineStr">
+        <v>1.68</v>
+      </c>
+      <c r="G82" t="inlineStr">
         <is>
           <t>olive</t>
         </is>
@@ -1923,10 +1639,7 @@
       <c r="C83">
         <v>8.050000000000001</v>
       </c>
-      <c r="F83">
-        <v>8.050000000000001</v>
-      </c>
-      <c r="H83" t="inlineStr">
+      <c r="G83" t="inlineStr">
         <is>
           <t>restless</t>
         </is>
@@ -1941,10 +1654,7 @@
       <c r="C84">
         <v>8.050000000000001</v>
       </c>
-      <c r="F84">
-        <v>8.050000000000001</v>
-      </c>
-      <c r="H84" t="inlineStr">
+      <c r="G84" t="inlineStr">
         <is>
           <t>condition</t>
         </is>
@@ -1959,10 +1669,7 @@
       <c r="C85">
         <v>8.06</v>
       </c>
-      <c r="F85">
-        <v>8.06</v>
-      </c>
-      <c r="H85" t="inlineStr">
+      <c r="G85" t="inlineStr">
         <is>
           <t>be afraid</t>
         </is>
@@ -1977,10 +1684,7 @@
       <c r="C86">
         <v>8.06</v>
       </c>
-      <c r="F86">
-        <v>8.06</v>
-      </c>
-      <c r="H86" t="inlineStr">
+      <c r="G86" t="inlineStr">
         <is>
           <t>ivory</t>
         </is>
@@ -1995,10 +1699,7 @@
       <c r="C87">
         <v>8.06</v>
       </c>
-      <c r="F87">
-        <v>8.06</v>
-      </c>
-      <c r="H87" t="inlineStr">
+      <c r="G87" t="inlineStr">
         <is>
           <t>endanger</t>
         </is>
@@ -2013,10 +1714,7 @@
       <c r="C88">
         <v>8.06</v>
       </c>
-      <c r="F88">
-        <v>8.06</v>
-      </c>
-      <c r="H88" t="inlineStr">
+      <c r="G88" t="inlineStr">
         <is>
           <t>stagger</t>
         </is>
@@ -2031,10 +1729,7 @@
       <c r="C89">
         <v>8.06</v>
       </c>
-      <c r="F89">
-        <v>8.06</v>
-      </c>
-      <c r="H89" t="inlineStr">
+      <c r="G89" t="inlineStr">
         <is>
           <t>transfer</t>
         </is>
@@ -2049,10 +1744,7 @@
       <c r="C90">
         <v>8.06</v>
       </c>
-      <c r="F90">
-        <v>8.06</v>
-      </c>
-      <c r="H90" t="inlineStr">
+      <c r="G90" t="inlineStr">
         <is>
           <t>doubt</t>
         </is>
@@ -2067,10 +1759,7 @@
       <c r="C91">
         <v>8.07</v>
       </c>
-      <c r="F91">
-        <v>8.07</v>
-      </c>
-      <c r="H91" t="inlineStr">
+      <c r="G91" t="inlineStr">
         <is>
           <t>bay</t>
         </is>
@@ -2085,10 +1774,7 @@
       <c r="C92">
         <v>8.07</v>
       </c>
-      <c r="F92">
-        <v>8.07</v>
-      </c>
-      <c r="H92" t="inlineStr">
+      <c r="G92" t="inlineStr">
         <is>
           <t>memento</t>
         </is>
@@ -2103,10 +1789,7 @@
       <c r="C93">
         <v>8.07</v>
       </c>
-      <c r="F93">
-        <v>8.07</v>
-      </c>
-      <c r="H93" t="inlineStr">
+      <c r="G93" t="inlineStr">
         <is>
           <t>trick</t>
         </is>
@@ -2121,10 +1804,7 @@
       <c r="C94">
         <v>8.07</v>
       </c>
-      <c r="F94">
-        <v>8.07</v>
-      </c>
-      <c r="H94" t="inlineStr">
+      <c r="G94" t="inlineStr">
         <is>
           <t>renovate</t>
         </is>
@@ -2139,10 +1819,7 @@
       <c r="C95">
         <v>8.08</v>
       </c>
-      <c r="F95">
-        <v>8.08</v>
-      </c>
-      <c r="H95" t="inlineStr">
+      <c r="G95" t="inlineStr">
         <is>
           <t>mine</t>
         </is>
@@ -2157,10 +1834,7 @@
       <c r="C96">
         <v>8.08</v>
       </c>
-      <c r="F96">
-        <v>8.08</v>
-      </c>
-      <c r="H96" t="inlineStr">
+      <c r="G96" t="inlineStr">
         <is>
           <t>lack of assurance</t>
         </is>
@@ -2175,10 +1849,7 @@
       <c r="C97">
         <v>8.08</v>
       </c>
-      <c r="F97">
-        <v>8.08</v>
-      </c>
-      <c r="H97" t="inlineStr">
+      <c r="G97" t="inlineStr">
         <is>
           <t>enhance</t>
         </is>
@@ -2193,10 +1864,7 @@
       <c r="C98">
         <v>8.09</v>
       </c>
-      <c r="F98">
-        <v>8.09</v>
-      </c>
-      <c r="H98" t="inlineStr">
+      <c r="G98" t="inlineStr">
         <is>
           <t>troll</t>
         </is>
@@ -2211,10 +1879,7 @@
       <c r="C99">
         <v>8.1</v>
       </c>
-      <c r="F99">
-        <v>8.1</v>
-      </c>
-      <c r="H99" t="inlineStr">
+      <c r="G99" t="inlineStr">
         <is>
           <t>ignore</t>
         </is>
@@ -2229,10 +1894,7 @@
       <c r="C100">
         <v>8.109999999999999</v>
       </c>
-      <c r="F100">
-        <v>8.109999999999999</v>
-      </c>
-      <c r="H100" t="inlineStr">
+      <c r="G100" t="inlineStr">
         <is>
           <t>start</t>
         </is>
@@ -2247,10 +1909,7 @@
       <c r="C101">
         <v>8.109999999999999</v>
       </c>
-      <c r="F101">
-        <v>8.109999999999999</v>
-      </c>
-      <c r="H101" t="inlineStr">
+      <c r="G101" t="inlineStr">
         <is>
           <t>recognition</t>
         </is>
@@ -2265,10 +1924,7 @@
       <c r="C102">
         <v>8.109999999999999</v>
       </c>
-      <c r="F102">
-        <v>8.109999999999999</v>
-      </c>
-      <c r="H102" t="inlineStr">
+      <c r="G102" t="inlineStr">
         <is>
           <t>progress</t>
         </is>
@@ -2283,10 +1939,7 @@
       <c r="C103">
         <v>8.109999999999999</v>
       </c>
-      <c r="F103">
-        <v>8.109999999999999</v>
-      </c>
-      <c r="H103" t="inlineStr">
+      <c r="G103" t="inlineStr">
         <is>
           <t>rocker</t>
         </is>
@@ -2301,10 +1954,7 @@
       <c r="C104">
         <v>8.109999999999999</v>
       </c>
-      <c r="F104">
-        <v>8.109999999999999</v>
-      </c>
-      <c r="H104" t="inlineStr">
+      <c r="G104" t="inlineStr">
         <is>
           <t>rubble</t>
         </is>
@@ -2319,10 +1969,7 @@
       <c r="C105">
         <v>8.109999999999999</v>
       </c>
-      <c r="F105">
-        <v>8.109999999999999</v>
-      </c>
-      <c r="H105" t="inlineStr">
+      <c r="G105" t="inlineStr">
         <is>
           <t>increase</t>
         </is>
@@ -2337,10 +1984,7 @@
       <c r="C106">
         <v>8.119999999999999</v>
       </c>
-      <c r="F106">
-        <v>8.119999999999999</v>
-      </c>
-      <c r="H106" t="inlineStr">
+      <c r="G106" t="inlineStr">
         <is>
           <t>demolition</t>
         </is>
@@ -2355,10 +1999,7 @@
       <c r="C107">
         <v>8.119999999999999</v>
       </c>
-      <c r="F107">
-        <v>8.119999999999999</v>
-      </c>
-      <c r="H107" t="inlineStr">
+      <c r="G107" t="inlineStr">
         <is>
           <t>infest</t>
         </is>
@@ -2373,19 +2014,13 @@
       <c r="C108">
         <v>8.119999999999999</v>
       </c>
-      <c r="F108">
-        <v>8.119999999999999</v>
-      </c>
-      <c r="H108" t="inlineStr">
+      <c r="E108">
+        <v>1.84</v>
+      </c>
+      <c r="G108" t="inlineStr">
         <is>
           <t>book</t>
         </is>
-      </c>
-      <c r="I108">
-        <v>1.84</v>
-      </c>
-      <c r="J108">
-        <v>3.89</v>
       </c>
     </row>
     <row r="109">
@@ -2397,10 +2032,7 @@
       <c r="C109">
         <v>8.119999999999999</v>
       </c>
-      <c r="F109">
-        <v>8.119999999999999</v>
-      </c>
-      <c r="H109" t="inlineStr">
+      <c r="G109" t="inlineStr">
         <is>
           <t>shrink from</t>
         </is>
@@ -2415,10 +2047,7 @@
       <c r="C110">
         <v>8.119999999999999</v>
       </c>
-      <c r="F110">
-        <v>8.119999999999999</v>
-      </c>
-      <c r="H110" t="inlineStr">
+      <c r="G110" t="inlineStr">
         <is>
           <t>betrayal</t>
         </is>
@@ -2433,10 +2062,7 @@
       <c r="C111">
         <v>8.130000000000001</v>
       </c>
-      <c r="F111">
-        <v>8.130000000000001</v>
-      </c>
-      <c r="H111" t="inlineStr">
+      <c r="G111" t="inlineStr">
         <is>
           <t>dimension</t>
         </is>
@@ -2451,10 +2077,7 @@
       <c r="C112">
         <v>8.130000000000001</v>
       </c>
-      <c r="F112">
-        <v>8.130000000000001</v>
-      </c>
-      <c r="H112" t="inlineStr">
+      <c r="G112" t="inlineStr">
         <is>
           <t>club</t>
         </is>
@@ -2466,19 +2089,13 @@
           <t>hockey</t>
         </is>
       </c>
-      <c r="B113">
-        <v>0.44</v>
-      </c>
       <c r="C113">
         <v>8.130000000000001</v>
       </c>
       <c r="D113">
-        <v>5.3</v>
-      </c>
-      <c r="F113">
-        <v>8.130000000000001</v>
-      </c>
-      <c r="H113" t="inlineStr">
+        <v>0.44</v>
+      </c>
+      <c r="G113" t="inlineStr">
         <is>
           <t>hockey</t>
         </is>
@@ -2493,10 +2110,7 @@
       <c r="C114">
         <v>8.140000000000001</v>
       </c>
-      <c r="F114">
-        <v>8.140000000000001</v>
-      </c>
-      <c r="H114" t="inlineStr">
+      <c r="G114" t="inlineStr">
         <is>
           <t>diy shop</t>
         </is>
@@ -2511,10 +2125,7 @@
       <c r="C115">
         <v>8.140000000000001</v>
       </c>
-      <c r="F115">
-        <v>8.140000000000001</v>
-      </c>
-      <c r="H115" t="inlineStr">
+      <c r="G115" t="inlineStr">
         <is>
           <t>restrict</t>
         </is>
@@ -2529,10 +2140,7 @@
       <c r="C116">
         <v>8.140000000000001</v>
       </c>
-      <c r="F116">
-        <v>8.140000000000001</v>
-      </c>
-      <c r="H116" t="inlineStr">
+      <c r="G116" t="inlineStr">
         <is>
           <t>colleague</t>
         </is>
@@ -2547,10 +2155,7 @@
       <c r="C117">
         <v>8.15</v>
       </c>
-      <c r="F117">
-        <v>8.15</v>
-      </c>
-      <c r="H117" t="inlineStr">
+      <c r="G117" t="inlineStr">
         <is>
           <t>deduction</t>
         </is>
@@ -2565,10 +2170,7 @@
       <c r="C118">
         <v>8.15</v>
       </c>
-      <c r="F118">
-        <v>8.15</v>
-      </c>
-      <c r="H118" t="inlineStr">
+      <c r="G118" t="inlineStr">
         <is>
           <t>adoption</t>
         </is>
@@ -2583,10 +2185,7 @@
       <c r="C119">
         <v>8.15</v>
       </c>
-      <c r="F119">
-        <v>8.15</v>
-      </c>
-      <c r="H119" t="inlineStr">
+      <c r="G119" t="inlineStr">
         <is>
           <t>susceptible</t>
         </is>
@@ -2601,10 +2200,7 @@
       <c r="C120">
         <v>8.15</v>
       </c>
-      <c r="F120">
-        <v>8.15</v>
-      </c>
-      <c r="H120" t="inlineStr">
+      <c r="G120" t="inlineStr">
         <is>
           <t>camera operators</t>
         </is>
@@ -2619,19 +2215,13 @@
       <c r="C121">
         <v>8.15</v>
       </c>
-      <c r="F121">
-        <v>8.15</v>
-      </c>
-      <c r="H121" t="inlineStr">
+      <c r="E121">
+        <v>11.67</v>
+      </c>
+      <c r="G121" t="inlineStr">
         <is>
           <t>microscope</t>
         </is>
-      </c>
-      <c r="I121">
-        <v>11.67</v>
-      </c>
-      <c r="J121">
-        <v>9.16</v>
       </c>
     </row>
     <row r="122">
@@ -2643,10 +2233,7 @@
       <c r="C122">
         <v>8.16</v>
       </c>
-      <c r="F122">
-        <v>8.16</v>
-      </c>
-      <c r="H122" t="inlineStr">
+      <c r="G122" t="inlineStr">
         <is>
           <t>axle</t>
         </is>
@@ -2661,10 +2248,7 @@
       <c r="C123">
         <v>8.16</v>
       </c>
-      <c r="F123">
-        <v>8.16</v>
-      </c>
-      <c r="H123" t="inlineStr">
+      <c r="G123" t="inlineStr">
         <is>
           <t>blonde</t>
         </is>
@@ -2679,10 +2263,7 @@
       <c r="C124">
         <v>8.16</v>
       </c>
-      <c r="F124">
-        <v>8.16</v>
-      </c>
-      <c r="H124" t="inlineStr">
+      <c r="G124" t="inlineStr">
         <is>
           <t>opera</t>
         </is>
@@ -2697,10 +2278,7 @@
       <c r="C125">
         <v>8.16</v>
       </c>
-      <c r="F125">
-        <v>8.16</v>
-      </c>
-      <c r="H125" t="inlineStr">
+      <c r="G125" t="inlineStr">
         <is>
           <t>paris</t>
         </is>
@@ -2712,19 +2290,13 @@
           <t>schriftsteller</t>
         </is>
       </c>
-      <c r="B126">
-        <v>45.28</v>
-      </c>
       <c r="C126">
         <v>8.16</v>
       </c>
       <c r="D126">
-        <v>4.35</v>
-      </c>
-      <c r="F126">
-        <v>8.16</v>
-      </c>
-      <c r="H126" t="inlineStr">
+        <v>45.28</v>
+      </c>
+      <c r="G126" t="inlineStr">
         <is>
           <t>writer</t>
         </is>
@@ -2739,10 +2311,7 @@
       <c r="C127">
         <v>8.16</v>
       </c>
-      <c r="F127">
-        <v>8.16</v>
-      </c>
-      <c r="H127" t="inlineStr">
+      <c r="G127" t="inlineStr">
         <is>
           <t>carefulness</t>
         </is>
@@ -2757,10 +2326,7 @@
       <c r="C128">
         <v>8.16</v>
       </c>
-      <c r="F128">
-        <v>8.16</v>
-      </c>
-      <c r="H128" t="inlineStr">
+      <c r="G128" t="inlineStr">
         <is>
           <t>fact</t>
         </is>
@@ -2775,10 +2341,7 @@
       <c r="C129">
         <v>8.16</v>
       </c>
-      <c r="F129">
-        <v>8.16</v>
-      </c>
-      <c r="H129" t="inlineStr">
+      <c r="G129" t="inlineStr">
         <is>
           <t>admirer</t>
         </is>
@@ -2793,10 +2356,7 @@
       <c r="C130">
         <v>8.17</v>
       </c>
-      <c r="F130">
-        <v>8.17</v>
-      </c>
-      <c r="H130" t="inlineStr">
+      <c r="G130" t="inlineStr">
         <is>
           <t>allergic</t>
         </is>
@@ -2811,10 +2371,7 @@
       <c r="C131">
         <v>8.17</v>
       </c>
-      <c r="F131">
-        <v>8.17</v>
-      </c>
-      <c r="H131" t="inlineStr">
+      <c r="G131" t="inlineStr">
         <is>
           <t>laboratory</t>
         </is>
@@ -2829,10 +2386,7 @@
       <c r="C132">
         <v>8.17</v>
       </c>
-      <c r="F132">
-        <v>8.17</v>
-      </c>
-      <c r="H132" t="inlineStr">
+      <c r="G132" t="inlineStr">
         <is>
           <t>million</t>
         </is>
@@ -2847,10 +2401,7 @@
       <c r="C133">
         <v>8.18</v>
       </c>
-      <c r="F133">
-        <v>8.18</v>
-      </c>
-      <c r="H133" t="inlineStr">
+      <c r="G133" t="inlineStr">
         <is>
           <t>director</t>
         </is>
@@ -2865,10 +2416,7 @@
       <c r="C134">
         <v>8.19</v>
       </c>
-      <c r="F134">
-        <v>8.19</v>
-      </c>
-      <c r="H134" t="inlineStr">
+      <c r="G134" t="inlineStr">
         <is>
           <t>equator</t>
         </is>
@@ -2883,10 +2431,7 @@
       <c r="C135">
         <v>8.19</v>
       </c>
-      <c r="F135">
-        <v>8.19</v>
-      </c>
-      <c r="H135" t="inlineStr">
+      <c r="G135" t="inlineStr">
         <is>
           <t>portrait</t>
         </is>
@@ -2901,10 +2446,7 @@
       <c r="C136">
         <v>8.19</v>
       </c>
-      <c r="F136">
-        <v>8.19</v>
-      </c>
-      <c r="H136" t="inlineStr">
+      <c r="G136" t="inlineStr">
         <is>
           <t>over-hasty</t>
         </is>
@@ -2919,10 +2461,7 @@
       <c r="C137">
         <v>8.199999999999999</v>
       </c>
-      <c r="F137">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="H137" t="inlineStr">
+      <c r="G137" t="inlineStr">
         <is>
           <t>recommend</t>
         </is>
@@ -2937,10 +2476,7 @@
       <c r="C138">
         <v>8.199999999999999</v>
       </c>
-      <c r="F138">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="H138" t="inlineStr">
+      <c r="G138" t="inlineStr">
         <is>
           <t>negative</t>
         </is>
@@ -2955,10 +2491,7 @@
       <c r="C139">
         <v>8.199999999999999</v>
       </c>
-      <c r="F139">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="H139" t="inlineStr">
+      <c r="G139" t="inlineStr">
         <is>
           <t>yearn</t>
         </is>
@@ -2973,10 +2506,7 @@
       <c r="C140">
         <v>8.199999999999999</v>
       </c>
-      <c r="F140">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="H140" t="inlineStr">
+      <c r="G140" t="inlineStr">
         <is>
           <t>simple</t>
         </is>
@@ -2991,10 +2521,7 @@
       <c r="C141">
         <v>8.199999999999999</v>
       </c>
-      <c r="F141">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="H141" t="inlineStr">
+      <c r="G141" t="inlineStr">
         <is>
           <t>weaver</t>
         </is>
@@ -3009,10 +2536,7 @@
       <c r="C142">
         <v>8.210000000000001</v>
       </c>
-      <c r="F142">
-        <v>8.210000000000001</v>
-      </c>
-      <c r="H142" t="inlineStr">
+      <c r="G142" t="inlineStr">
         <is>
           <t>log cabin</t>
         </is>
@@ -3027,10 +2551,7 @@
       <c r="C143">
         <v>8.210000000000001</v>
       </c>
-      <c r="F143">
-        <v>8.210000000000001</v>
-      </c>
-      <c r="H143" t="inlineStr">
+      <c r="G143" t="inlineStr">
         <is>
           <t>miser</t>
         </is>
@@ -3045,10 +2566,7 @@
       <c r="C144">
         <v>8.210000000000001</v>
       </c>
-      <c r="F144">
-        <v>8.210000000000001</v>
-      </c>
-      <c r="H144" t="inlineStr">
+      <c r="G144" t="inlineStr">
         <is>
           <t>master</t>
         </is>
@@ -3063,10 +2581,7 @@
       <c r="C145">
         <v>8.210000000000001</v>
       </c>
-      <c r="F145">
-        <v>8.210000000000001</v>
-      </c>
-      <c r="H145" t="inlineStr">
+      <c r="G145" t="inlineStr">
         <is>
           <t>unconsciousness</t>
         </is>
@@ -3081,10 +2596,7 @@
       <c r="C146">
         <v>8.210000000000001</v>
       </c>
-      <c r="F146">
-        <v>8.210000000000001</v>
-      </c>
-      <c r="H146" t="inlineStr">
+      <c r="G146" t="inlineStr">
         <is>
           <t>haphazardly</t>
         </is>
@@ -3099,10 +2611,7 @@
       <c r="C147">
         <v>8.210000000000001</v>
       </c>
-      <c r="F147">
-        <v>8.210000000000001</v>
-      </c>
-      <c r="H147" t="inlineStr">
+      <c r="G147" t="inlineStr">
         <is>
           <t>shock</t>
         </is>
@@ -3117,10 +2626,7 @@
       <c r="C148">
         <v>8.210000000000001</v>
       </c>
-      <c r="F148">
-        <v>8.210000000000001</v>
-      </c>
-      <c r="H148" t="inlineStr">
+      <c r="G148" t="inlineStr">
         <is>
           <t>counter</t>
         </is>
@@ -3135,10 +2641,7 @@
       <c r="C149">
         <v>8.210000000000001</v>
       </c>
-      <c r="F149">
-        <v>8.210000000000001</v>
-      </c>
-      <c r="H149" t="inlineStr">
+      <c r="G149" t="inlineStr">
         <is>
           <t>stack up</t>
         </is>
@@ -3153,10 +2656,7 @@
       <c r="C150">
         <v>8.210000000000001</v>
       </c>
-      <c r="F150">
-        <v>8.210000000000001</v>
-      </c>
-      <c r="H150" t="inlineStr">
+      <c r="G150" t="inlineStr">
         <is>
           <t>agile</t>
         </is>
@@ -3171,10 +2671,7 @@
       <c r="C151">
         <v>8.220000000000001</v>
       </c>
-      <c r="F151">
-        <v>8.220000000000001</v>
-      </c>
-      <c r="H151" t="inlineStr">
+      <c r="G151" t="inlineStr">
         <is>
           <t>expected</t>
         </is>
@@ -3189,10 +2686,7 @@
       <c r="C152">
         <v>8.24</v>
       </c>
-      <c r="F152">
-        <v>8.24</v>
-      </c>
-      <c r="H152" t="inlineStr">
+      <c r="G152" t="inlineStr">
         <is>
           <t>sparkling wine</t>
         </is>
@@ -3207,10 +2701,7 @@
       <c r="C153">
         <v>8.25</v>
       </c>
-      <c r="F153">
-        <v>8.25</v>
-      </c>
-      <c r="H153" t="inlineStr">
+      <c r="G153" t="inlineStr">
         <is>
           <t>anvil</t>
         </is>
@@ -3225,10 +2716,7 @@
       <c r="C154">
         <v>8.25</v>
       </c>
-      <c r="F154">
-        <v>8.25</v>
-      </c>
-      <c r="H154" t="inlineStr">
+      <c r="G154" t="inlineStr">
         <is>
           <t>gangster</t>
         </is>
@@ -3243,10 +2731,7 @@
       <c r="C155">
         <v>8.25</v>
       </c>
-      <c r="F155">
-        <v>8.25</v>
-      </c>
-      <c r="H155" t="inlineStr">
+      <c r="G155" t="inlineStr">
         <is>
           <t>circumference</t>
         </is>
@@ -3261,10 +2746,7 @@
       <c r="C156">
         <v>8.26</v>
       </c>
-      <c r="F156">
-        <v>8.26</v>
-      </c>
-      <c r="H156" t="inlineStr">
+      <c r="G156" t="inlineStr">
         <is>
           <t>medic</t>
         </is>
@@ -3279,10 +2761,7 @@
       <c r="C157">
         <v>8.26</v>
       </c>
-      <c r="F157">
-        <v>8.26</v>
-      </c>
-      <c r="H157" t="inlineStr">
+      <c r="G157" t="inlineStr">
         <is>
           <t>telegram</t>
         </is>
@@ -3297,10 +2776,7 @@
       <c r="C158">
         <v>8.26</v>
       </c>
-      <c r="F158">
-        <v>8.26</v>
-      </c>
-      <c r="H158" t="inlineStr">
+      <c r="G158" t="inlineStr">
         <is>
           <t>failure</t>
         </is>
@@ -3315,10 +2791,7 @@
       <c r="C159">
         <v>8.27</v>
       </c>
-      <c r="F159">
-        <v>8.27</v>
-      </c>
-      <c r="H159" t="inlineStr">
+      <c r="G159" t="inlineStr">
         <is>
           <t>dialect</t>
         </is>
@@ -3333,10 +2806,7 @@
       <c r="C160">
         <v>8.27</v>
       </c>
-      <c r="F160">
-        <v>8.27</v>
-      </c>
-      <c r="H160" t="inlineStr">
+      <c r="G160" t="inlineStr">
         <is>
           <t>mercy</t>
         </is>
@@ -3351,10 +2821,7 @@
       <c r="C161">
         <v>8.27</v>
       </c>
-      <c r="F161">
-        <v>8.27</v>
-      </c>
-      <c r="H161" t="inlineStr">
+      <c r="G161" t="inlineStr">
         <is>
           <t>lift</t>
         </is>
@@ -3369,10 +2836,7 @@
       <c r="C162">
         <v>8.27</v>
       </c>
-      <c r="F162">
-        <v>8.27</v>
-      </c>
-      <c r="H162" t="inlineStr">
+      <c r="G162" t="inlineStr">
         <is>
           <t>shear</t>
         </is>
@@ -3387,10 +2851,7 @@
       <c r="C163">
         <v>8.279999999999999</v>
       </c>
-      <c r="F163">
-        <v>8.279999999999999</v>
-      </c>
-      <c r="H163" t="inlineStr">
+      <c r="G163" t="inlineStr">
         <is>
           <t>hymn</t>
         </is>
@@ -3405,10 +2866,7 @@
       <c r="C164">
         <v>8.279999999999999</v>
       </c>
-      <c r="F164">
-        <v>8.279999999999999</v>
-      </c>
-      <c r="H164" t="inlineStr">
+      <c r="G164" t="inlineStr">
         <is>
           <t>crime fiction</t>
         </is>
@@ -3423,10 +2881,7 @@
       <c r="C165">
         <v>8.279999999999999</v>
       </c>
-      <c r="F165">
-        <v>8.279999999999999</v>
-      </c>
-      <c r="H165" t="inlineStr">
+      <c r="G165" t="inlineStr">
         <is>
           <t>jam-packed</t>
         </is>
@@ -3441,10 +2896,7 @@
       <c r="C166">
         <v>8.289999999999999</v>
       </c>
-      <c r="F166">
-        <v>8.289999999999999</v>
-      </c>
-      <c r="H166" t="inlineStr">
+      <c r="G166" t="inlineStr">
         <is>
           <t>duel</t>
         </is>
@@ -3459,10 +2911,7 @@
       <c r="C167">
         <v>8.289999999999999</v>
       </c>
-      <c r="F167">
-        <v>8.289999999999999</v>
-      </c>
-      <c r="H167" t="inlineStr">
+      <c r="G167" t="inlineStr">
         <is>
           <t>levy</t>
         </is>
@@ -3477,10 +2926,7 @@
       <c r="C168">
         <v>8.289999999999999</v>
       </c>
-      <c r="F168">
-        <v>8.289999999999999</v>
-      </c>
-      <c r="H168" t="inlineStr">
+      <c r="G168" t="inlineStr">
         <is>
           <t>harmony</t>
         </is>
@@ -3495,10 +2941,7 @@
       <c r="C169">
         <v>8.289999999999999</v>
       </c>
-      <c r="F169">
-        <v>8.289999999999999</v>
-      </c>
-      <c r="H169" t="inlineStr">
+      <c r="G169" t="inlineStr">
         <is>
           <t>crisis</t>
         </is>
@@ -3513,10 +2956,7 @@
       <c r="C170">
         <v>8.289999999999999</v>
       </c>
-      <c r="F170">
-        <v>8.289999999999999</v>
-      </c>
-      <c r="H170" t="inlineStr">
+      <c r="G170" t="inlineStr">
         <is>
           <t>souvenir</t>
         </is>
@@ -3531,10 +2971,7 @@
       <c r="C171">
         <v>8.289999999999999</v>
       </c>
-      <c r="F171">
-        <v>8.289999999999999</v>
-      </c>
-      <c r="H171" t="inlineStr">
+      <c r="G171" t="inlineStr">
         <is>
           <t>reference</t>
         </is>
@@ -3549,10 +2986,7 @@
       <c r="C172">
         <v>8.289999999999999</v>
       </c>
-      <c r="F172">
-        <v>8.289999999999999</v>
-      </c>
-      <c r="H172" t="inlineStr">
+      <c r="G172" t="inlineStr">
         <is>
           <t>petite</t>
         </is>
@@ -3567,10 +3001,7 @@
       <c r="C173">
         <v>8.300000000000001</v>
       </c>
-      <c r="F173">
-        <v>8.300000000000001</v>
-      </c>
-      <c r="H173" t="inlineStr">
+      <c r="G173" t="inlineStr">
         <is>
           <t>severe</t>
         </is>
@@ -3585,10 +3016,7 @@
       <c r="C174">
         <v>8.300000000000001</v>
       </c>
-      <c r="F174">
-        <v>8.300000000000001</v>
-      </c>
-      <c r="H174" t="inlineStr">
+      <c r="G174" t="inlineStr">
         <is>
           <t>repercussion</t>
         </is>
@@ -3603,10 +3031,7 @@
       <c r="C175">
         <v>8.300000000000001</v>
       </c>
-      <c r="F175">
-        <v>8.300000000000001</v>
-      </c>
-      <c r="H175" t="inlineStr">
+      <c r="G175" t="inlineStr">
         <is>
           <t>mysterious</t>
         </is>
@@ -3621,19 +3046,13 @@
       <c r="C176">
         <v>8.300000000000001</v>
       </c>
-      <c r="F176">
-        <v>8.300000000000001</v>
-      </c>
-      <c r="H176" t="inlineStr">
+      <c r="E176">
+        <v>3.21</v>
+      </c>
+      <c r="G176" t="inlineStr">
         <is>
           <t>sandwich</t>
         </is>
-      </c>
-      <c r="I176">
-        <v>3.21</v>
-      </c>
-      <c r="J176">
-        <v>4.4</v>
       </c>
     </row>
     <row r="177">
@@ -3645,10 +3064,7 @@
       <c r="C177">
         <v>8.31</v>
       </c>
-      <c r="F177">
-        <v>8.31</v>
-      </c>
-      <c r="H177" t="inlineStr">
+      <c r="G177" t="inlineStr">
         <is>
           <t>share</t>
         </is>
@@ -3663,10 +3079,7 @@
       <c r="C178">
         <v>8.31</v>
       </c>
-      <c r="F178">
-        <v>8.31</v>
-      </c>
-      <c r="H178" t="inlineStr">
+      <c r="G178" t="inlineStr">
         <is>
           <t>copper</t>
         </is>
@@ -3681,10 +3094,7 @@
       <c r="C179">
         <v>8.32</v>
       </c>
-      <c r="F179">
-        <v>8.32</v>
-      </c>
-      <c r="H179" t="inlineStr">
+      <c r="G179" t="inlineStr">
         <is>
           <t>statement</t>
         </is>
@@ -3699,10 +3109,7 @@
       <c r="C180">
         <v>8.32</v>
       </c>
-      <c r="F180">
-        <v>8.32</v>
-      </c>
-      <c r="H180" t="inlineStr">
+      <c r="G180" t="inlineStr">
         <is>
           <t>maid</t>
         </is>
@@ -3717,10 +3124,7 @@
       <c r="C181">
         <v>8.32</v>
       </c>
-      <c r="F181">
-        <v>8.32</v>
-      </c>
-      <c r="H181" t="inlineStr">
+      <c r="G181" t="inlineStr">
         <is>
           <t>sauna</t>
         </is>
@@ -3735,10 +3139,7 @@
       <c r="C182">
         <v>8.33</v>
       </c>
-      <c r="F182">
-        <v>8.33</v>
-      </c>
-      <c r="H182" t="inlineStr">
+      <c r="G182" t="inlineStr">
         <is>
           <t>reception</t>
         </is>
@@ -3753,10 +3154,7 @@
       <c r="C183">
         <v>8.33</v>
       </c>
-      <c r="F183">
-        <v>8.33</v>
-      </c>
-      <c r="H183" t="inlineStr">
+      <c r="G183" t="inlineStr">
         <is>
           <t>unauthorized</t>
         </is>
@@ -3771,10 +3169,7 @@
       <c r="C184">
         <v>8.33</v>
       </c>
-      <c r="F184">
-        <v>8.33</v>
-      </c>
-      <c r="H184" t="inlineStr">
+      <c r="G184" t="inlineStr">
         <is>
           <t>preference</t>
         </is>
@@ -3789,10 +3184,7 @@
       <c r="C185">
         <v>8.35</v>
       </c>
-      <c r="F185">
-        <v>8.35</v>
-      </c>
-      <c r="H185" t="inlineStr">
+      <c r="G185" t="inlineStr">
         <is>
           <t>expenditure</t>
         </is>
@@ -3807,10 +3199,7 @@
       <c r="C186">
         <v>8.35</v>
       </c>
-      <c r="F186">
-        <v>8.35</v>
-      </c>
-      <c r="H186" t="inlineStr">
+      <c r="G186" t="inlineStr">
         <is>
           <t>lead</t>
         </is>
@@ -3825,10 +3214,7 @@
       <c r="C187">
         <v>8.35</v>
       </c>
-      <c r="F187">
-        <v>8.35</v>
-      </c>
-      <c r="H187" t="inlineStr">
+      <c r="G187" t="inlineStr">
         <is>
           <t>dosage</t>
         </is>
@@ -3843,10 +3229,7 @@
       <c r="C188">
         <v>8.35</v>
       </c>
-      <c r="F188">
-        <v>8.35</v>
-      </c>
-      <c r="H188" t="inlineStr">
+      <c r="G188" t="inlineStr">
         <is>
           <t>laurel tree</t>
         </is>
@@ -3861,10 +3244,7 @@
       <c r="C189">
         <v>8.35</v>
       </c>
-      <c r="F189">
-        <v>8.35</v>
-      </c>
-      <c r="H189" t="inlineStr">
+      <c r="G189" t="inlineStr">
         <is>
           <t>mosaic</t>
         </is>
@@ -3879,10 +3259,7 @@
       <c r="C190">
         <v>8.35</v>
       </c>
-      <c r="F190">
-        <v>8.35</v>
-      </c>
-      <c r="H190" t="inlineStr">
+      <c r="G190" t="inlineStr">
         <is>
           <t>taboo</t>
         </is>
@@ -3897,10 +3274,7 @@
       <c r="C191">
         <v>8.35</v>
       </c>
-      <c r="F191">
-        <v>8.35</v>
-      </c>
-      <c r="H191" t="inlineStr">
+      <c r="G191" t="inlineStr">
         <is>
           <t>environment</t>
         </is>
@@ -3915,10 +3289,7 @@
       <c r="C192">
         <v>8.35</v>
       </c>
-      <c r="F192">
-        <v>8.35</v>
-      </c>
-      <c r="H192" t="inlineStr">
+      <c r="G192" t="inlineStr">
         <is>
           <t>renunciation</t>
         </is>
@@ -3933,10 +3304,7 @@
       <c r="C193">
         <v>8.359999999999999</v>
       </c>
-      <c r="F193">
-        <v>8.359999999999999</v>
-      </c>
-      <c r="H193" t="inlineStr">
+      <c r="G193" t="inlineStr">
         <is>
           <t>bungalow</t>
         </is>
@@ -3951,10 +3319,7 @@
       <c r="C194">
         <v>8.359999999999999</v>
       </c>
-      <c r="F194">
-        <v>8.359999999999999</v>
-      </c>
-      <c r="H194" t="inlineStr">
+      <c r="G194" t="inlineStr">
         <is>
           <t>ingenious</t>
         </is>
@@ -3969,10 +3334,7 @@
       <c r="C195">
         <v>8.359999999999999</v>
       </c>
-      <c r="F195">
-        <v>8.359999999999999</v>
-      </c>
-      <c r="H195" t="inlineStr">
+      <c r="G195" t="inlineStr">
         <is>
           <t>hygienic</t>
         </is>
@@ -3987,10 +3349,7 @@
       <c r="C196">
         <v>8.359999999999999</v>
       </c>
-      <c r="F196">
-        <v>8.359999999999999</v>
-      </c>
-      <c r="H196" t="inlineStr">
+      <c r="G196" t="inlineStr">
         <is>
           <t>deny</t>
         </is>
@@ -4005,10 +3364,7 @@
       <c r="C197">
         <v>8.359999999999999</v>
       </c>
-      <c r="F197">
-        <v>8.359999999999999</v>
-      </c>
-      <c r="H197" t="inlineStr">
+      <c r="G197" t="inlineStr">
         <is>
           <t>people</t>
         </is>
@@ -4023,10 +3379,7 @@
       <c r="C198">
         <v>8.369999999999999</v>
       </c>
-      <c r="F198">
-        <v>8.369999999999999</v>
-      </c>
-      <c r="H198" t="inlineStr">
+      <c r="G198" t="inlineStr">
         <is>
           <t>climb</t>
         </is>
@@ -4041,10 +3394,7 @@
       <c r="C199">
         <v>8.369999999999999</v>
       </c>
-      <c r="F199">
-        <v>8.369999999999999</v>
-      </c>
-      <c r="H199" t="inlineStr">
+      <c r="G199" t="inlineStr">
         <is>
           <t>take place</t>
         </is>
@@ -4059,10 +3409,7 @@
       <c r="C200">
         <v>8.369999999999999</v>
       </c>
-      <c r="F200">
-        <v>8.369999999999999</v>
-      </c>
-      <c r="H200" t="inlineStr">
+      <c r="G200" t="inlineStr">
         <is>
           <t>copy</t>
         </is>
@@ -4077,10 +3424,7 @@
       <c r="C201">
         <v>8.369999999999999</v>
       </c>
-      <c r="F201">
-        <v>8.369999999999999</v>
-      </c>
-      <c r="H201" t="inlineStr">
+      <c r="G201" t="inlineStr">
         <is>
           <t>scene of crime</t>
         </is>
@@ -4095,10 +3439,7 @@
       <c r="C202">
         <v>8.369999999999999</v>
       </c>
-      <c r="F202">
-        <v>8.369999999999999</v>
-      </c>
-      <c r="H202" t="inlineStr">
+      <c r="G202" t="inlineStr">
         <is>
           <t>subject</t>
         </is>
@@ -4113,10 +3454,7 @@
       <c r="C203">
         <v>8.369999999999999</v>
       </c>
-      <c r="F203">
-        <v>8.369999999999999</v>
-      </c>
-      <c r="H203" t="inlineStr">
+      <c r="G203" t="inlineStr">
         <is>
           <t>female witness</t>
         </is>
@@ -4131,10 +3469,7 @@
       <c r="C204">
         <v>8.369999999999999</v>
       </c>
-      <c r="F204">
-        <v>8.369999999999999</v>
-      </c>
-      <c r="H204" t="inlineStr">
+      <c r="G204" t="inlineStr">
         <is>
           <t>encore</t>
         </is>
@@ -4149,10 +3484,7 @@
       <c r="C205">
         <v>8.380000000000001</v>
       </c>
-      <c r="F205">
-        <v>8.380000000000001</v>
-      </c>
-      <c r="H205" t="inlineStr">
+      <c r="G205" t="inlineStr">
         <is>
           <t>agent</t>
         </is>
@@ -4167,10 +3499,7 @@
       <c r="C206">
         <v>8.380000000000001</v>
       </c>
-      <c r="F206">
-        <v>8.380000000000001</v>
-      </c>
-      <c r="H206" t="inlineStr">
+      <c r="G206" t="inlineStr">
         <is>
           <t>pacific</t>
         </is>
@@ -4185,10 +3514,7 @@
       <c r="C207">
         <v>8.380000000000001</v>
       </c>
-      <c r="F207">
-        <v>8.380000000000001</v>
-      </c>
-      <c r="H207" t="inlineStr">
+      <c r="G207" t="inlineStr">
         <is>
           <t>special</t>
         </is>
@@ -4203,10 +3529,7 @@
       <c r="C208">
         <v>8.380000000000001</v>
       </c>
-      <c r="F208">
-        <v>8.380000000000001</v>
-      </c>
-      <c r="H208" t="inlineStr">
+      <c r="G208" t="inlineStr">
         <is>
           <t>occupation</t>
         </is>
@@ -4221,10 +3544,7 @@
       <c r="C209">
         <v>8.390000000000001</v>
       </c>
-      <c r="F209">
-        <v>8.390000000000001</v>
-      </c>
-      <c r="H209" t="inlineStr">
+      <c r="G209" t="inlineStr">
         <is>
           <t>away from</t>
         </is>
@@ -4239,10 +3559,7 @@
       <c r="C210">
         <v>8.390000000000001</v>
       </c>
-      <c r="F210">
-        <v>8.390000000000001</v>
-      </c>
-      <c r="H210" t="inlineStr">
+      <c r="G210" t="inlineStr">
         <is>
           <t>attraction</t>
         </is>
@@ -4257,10 +3574,7 @@
       <c r="C211">
         <v>8.4</v>
       </c>
-      <c r="F211">
-        <v>8.4</v>
-      </c>
-      <c r="H211" t="inlineStr">
+      <c r="G211" t="inlineStr">
         <is>
           <t>accomplice</t>
         </is>
@@ -4275,10 +3589,7 @@
       <c r="C212">
         <v>8.4</v>
       </c>
-      <c r="F212">
-        <v>8.4</v>
-      </c>
-      <c r="H212" t="inlineStr">
+      <c r="G212" t="inlineStr">
         <is>
           <t>chubby</t>
         </is>
@@ -4293,10 +3604,7 @@
       <c r="C213">
         <v>8.41</v>
       </c>
-      <c r="F213">
-        <v>8.41</v>
-      </c>
-      <c r="H213" t="inlineStr">
+      <c r="G213" t="inlineStr">
         <is>
           <t>video</t>
         </is>
@@ -4311,10 +3619,7 @@
       <c r="C214">
         <v>8.42</v>
       </c>
-      <c r="F214">
-        <v>8.42</v>
-      </c>
-      <c r="H214" t="inlineStr">
+      <c r="G214" t="inlineStr">
         <is>
           <t>buffet</t>
         </is>
@@ -4329,10 +3634,7 @@
       <c r="C215">
         <v>8.42</v>
       </c>
-      <c r="F215">
-        <v>8.42</v>
-      </c>
-      <c r="H215" t="inlineStr">
+      <c r="G215" t="inlineStr">
         <is>
           <t>film star</t>
         </is>
@@ -4347,10 +3649,7 @@
       <c r="C216">
         <v>8.42</v>
       </c>
-      <c r="F216">
-        <v>8.42</v>
-      </c>
-      <c r="H216" t="inlineStr">
+      <c r="G216" t="inlineStr">
         <is>
           <t>secretary</t>
         </is>
@@ -4365,10 +3664,7 @@
       <c r="C217">
         <v>8.42</v>
       </c>
-      <c r="F217">
-        <v>8.42</v>
-      </c>
-      <c r="H217" t="inlineStr">
+      <c r="G217" t="inlineStr">
         <is>
           <t>intonation</t>
         </is>
@@ -4383,10 +3679,7 @@
       <c r="C218">
         <v>8.42</v>
       </c>
-      <c r="F218">
-        <v>8.42</v>
-      </c>
-      <c r="H218" t="inlineStr">
+      <c r="G218" t="inlineStr">
         <is>
           <t>wedding ceremony</t>
         </is>
@@ -4401,10 +3694,7 @@
       <c r="C219">
         <v>8.42</v>
       </c>
-      <c r="F219">
-        <v>8.42</v>
-      </c>
-      <c r="H219" t="inlineStr">
+      <c r="G219" t="inlineStr">
         <is>
           <t>innocence</t>
         </is>
@@ -4419,10 +3709,7 @@
       <c r="C220">
         <v>8.43</v>
       </c>
-      <c r="F220">
-        <v>8.43</v>
-      </c>
-      <c r="H220" t="inlineStr">
+      <c r="G220" t="inlineStr">
         <is>
           <t>urge</t>
         </is>
@@ -4437,10 +3724,7 @@
       <c r="C221">
         <v>8.43</v>
       </c>
-      <c r="F221">
-        <v>8.43</v>
-      </c>
-      <c r="H221" t="inlineStr">
+      <c r="G221" t="inlineStr">
         <is>
           <t>quality</t>
         </is>
@@ -4455,10 +3739,7 @@
       <c r="C222">
         <v>8.43</v>
       </c>
-      <c r="F222">
-        <v>8.43</v>
-      </c>
-      <c r="H222" t="inlineStr">
+      <c r="G222" t="inlineStr">
         <is>
           <t>romantic</t>
         </is>
@@ -4473,10 +3754,7 @@
       <c r="C223">
         <v>8.44</v>
       </c>
-      <c r="F223">
-        <v>8.44</v>
-      </c>
-      <c r="H223" t="inlineStr">
+      <c r="G223" t="inlineStr">
         <is>
           <t>receipt</t>
         </is>
@@ -4491,10 +3769,7 @@
       <c r="C224">
         <v>8.44</v>
       </c>
-      <c r="F224">
-        <v>8.44</v>
-      </c>
-      <c r="H224" t="inlineStr">
+      <c r="G224" t="inlineStr">
         <is>
           <t>insight</t>
         </is>
@@ -4509,10 +3784,7 @@
       <c r="C225">
         <v>8.44</v>
       </c>
-      <c r="F225">
-        <v>8.44</v>
-      </c>
-      <c r="H225" t="inlineStr">
+      <c r="G225" t="inlineStr">
         <is>
           <t>consequence</t>
         </is>
@@ -4527,10 +3799,7 @@
       <c r="C226">
         <v>8.44</v>
       </c>
-      <c r="F226">
-        <v>8.44</v>
-      </c>
-      <c r="H226" t="inlineStr">
+      <c r="G226" t="inlineStr">
         <is>
           <t>sensational</t>
         </is>
@@ -4545,10 +3814,7 @@
       <c r="C227">
         <v>8.449999999999999</v>
       </c>
-      <c r="F227">
-        <v>8.449999999999999</v>
-      </c>
-      <c r="H227" t="inlineStr">
+      <c r="G227" t="inlineStr">
         <is>
           <t>at most</t>
         </is>
@@ -4563,10 +3829,7 @@
       <c r="C228">
         <v>8.460000000000001</v>
       </c>
-      <c r="F228">
-        <v>8.460000000000001</v>
-      </c>
-      <c r="H228" t="inlineStr">
+      <c r="G228" t="inlineStr">
         <is>
           <t>intelligent</t>
         </is>
@@ -4581,10 +3844,7 @@
       <c r="C229">
         <v>8.470000000000001</v>
       </c>
-      <c r="F229">
-        <v>8.470000000000001</v>
-      </c>
-      <c r="H229" t="inlineStr">
+      <c r="G229" t="inlineStr">
         <is>
           <t>refusal</t>
         </is>
@@ -4599,10 +3859,7 @@
       <c r="C230">
         <v>8.470000000000001</v>
       </c>
-      <c r="F230">
-        <v>8.470000000000001</v>
-      </c>
-      <c r="H230" t="inlineStr">
+      <c r="G230" t="inlineStr">
         <is>
           <t>position</t>
         </is>
@@ -4617,10 +3874,7 @@
       <c r="C231">
         <v>8.470000000000001</v>
       </c>
-      <c r="F231">
-        <v>8.470000000000001</v>
-      </c>
-      <c r="H231" t="inlineStr">
+      <c r="G231" t="inlineStr">
         <is>
           <t>advance</t>
         </is>
@@ -4635,10 +3889,7 @@
       <c r="C232">
         <v>8.470000000000001</v>
       </c>
-      <c r="F232">
-        <v>8.470000000000001</v>
-      </c>
-      <c r="H232" t="inlineStr">
+      <c r="G232" t="inlineStr">
         <is>
           <t>stimulation</t>
         </is>
@@ -4653,10 +3904,7 @@
       <c r="C233">
         <v>8.470000000000001</v>
       </c>
-      <c r="F233">
-        <v>8.470000000000001</v>
-      </c>
-      <c r="H233" t="inlineStr">
+      <c r="G233" t="inlineStr">
         <is>
           <t>withdraw</t>
         </is>
@@ -4671,10 +3919,7 @@
       <c r="C234">
         <v>8.470000000000001</v>
       </c>
-      <c r="F234">
-        <v>8.470000000000001</v>
-      </c>
-      <c r="H234" t="inlineStr">
+      <c r="G234" t="inlineStr">
         <is>
           <t>say i do</t>
         </is>
@@ -4689,10 +3934,7 @@
       <c r="C235">
         <v>8.470000000000001</v>
       </c>
-      <c r="F235">
-        <v>8.470000000000001</v>
-      </c>
-      <c r="H235" t="inlineStr">
+      <c r="G235" t="inlineStr">
         <is>
           <t>creative</t>
         </is>
@@ -4707,10 +3949,7 @@
       <c r="C236">
         <v>8.470000000000001</v>
       </c>
-      <c r="F236">
-        <v>8.470000000000001</v>
-      </c>
-      <c r="H236" t="inlineStr">
+      <c r="G236" t="inlineStr">
         <is>
           <t>latin</t>
         </is>
@@ -4725,10 +3964,7 @@
       <c r="C237">
         <v>8.470000000000001</v>
       </c>
-      <c r="F237">
-        <v>8.470000000000001</v>
-      </c>
-      <c r="H237" t="inlineStr">
+      <c r="G237" t="inlineStr">
         <is>
           <t>body</t>
         </is>
@@ -4743,10 +3979,7 @@
       <c r="C238">
         <v>8.470000000000001</v>
       </c>
-      <c r="F238">
-        <v>8.470000000000001</v>
-      </c>
-      <c r="H238" t="inlineStr">
+      <c r="G238" t="inlineStr">
         <is>
           <t>effect</t>
         </is>
@@ -4761,10 +3994,7 @@
       <c r="C239">
         <v>8.48</v>
       </c>
-      <c r="F239">
-        <v>8.48</v>
-      </c>
-      <c r="H239" t="inlineStr">
+      <c r="G239" t="inlineStr">
         <is>
           <t>regret</t>
         </is>
@@ -4779,10 +4009,7 @@
       <c r="C240">
         <v>8.48</v>
       </c>
-      <c r="F240">
-        <v>8.48</v>
-      </c>
-      <c r="H240" t="inlineStr">
+      <c r="G240" t="inlineStr">
         <is>
           <t>musty</t>
         </is>
@@ -4797,10 +4024,7 @@
       <c r="C241">
         <v>8.48</v>
       </c>
-      <c r="F241">
-        <v>8.48</v>
-      </c>
-      <c r="H241" t="inlineStr">
+      <c r="G241" t="inlineStr">
         <is>
           <t>trump</t>
         </is>
@@ -4815,10 +4039,7 @@
       <c r="C242">
         <v>8.48</v>
       </c>
-      <c r="F242">
-        <v>8.48</v>
-      </c>
-      <c r="H242" t="inlineStr">
+      <c r="G242" t="inlineStr">
         <is>
           <t>good deed</t>
         </is>
@@ -4833,10 +4054,7 @@
       <c r="C243">
         <v>8.5</v>
       </c>
-      <c r="F243">
-        <v>8.5</v>
-      </c>
-      <c r="H243" t="inlineStr">
+      <c r="G243" t="inlineStr">
         <is>
           <t>activate</t>
         </is>
@@ -4851,10 +4069,7 @@
       <c r="C244">
         <v>8.5</v>
       </c>
-      <c r="F244">
-        <v>8.5</v>
-      </c>
-      <c r="H244" t="inlineStr">
+      <c r="G244" t="inlineStr">
         <is>
           <t>earnings</t>
         </is>
@@ -4869,10 +4084,7 @@
       <c r="C245">
         <v>8.5</v>
       </c>
-      <c r="F245">
-        <v>8.5</v>
-      </c>
-      <c r="H245" t="inlineStr">
+      <c r="G245" t="inlineStr">
         <is>
           <t>fossil</t>
         </is>
@@ -4887,10 +4099,7 @@
       <c r="C246">
         <v>8.5</v>
       </c>
-      <c r="F246">
-        <v>8.5</v>
-      </c>
-      <c r="H246" t="inlineStr">
+      <c r="G246" t="inlineStr">
         <is>
           <t>genius</t>
         </is>
@@ -4905,10 +4114,7 @@
       <c r="C247">
         <v>8.5</v>
       </c>
-      <c r="F247">
-        <v>8.5</v>
-      </c>
-      <c r="H247" t="inlineStr">
+      <c r="G247" t="inlineStr">
         <is>
           <t>riffraff</t>
         </is>
@@ -4923,10 +4129,7 @@
       <c r="C248">
         <v>8.5</v>
       </c>
-      <c r="F248">
-        <v>8.5</v>
-      </c>
-      <c r="H248" t="inlineStr">
+      <c r="G248" t="inlineStr">
         <is>
           <t>karate</t>
         </is>
@@ -4941,10 +4144,7 @@
       <c r="C249">
         <v>8.52</v>
       </c>
-      <c r="F249">
-        <v>8.52</v>
-      </c>
-      <c r="H249" t="inlineStr">
+      <c r="G249" t="inlineStr">
         <is>
           <t>lout</t>
         </is>
@@ -4959,10 +4159,7 @@
       <c r="C250">
         <v>8.52</v>
       </c>
-      <c r="F250">
-        <v>8.52</v>
-      </c>
-      <c r="H250" t="inlineStr">
+      <c r="G250" t="inlineStr">
         <is>
           <t>sesame</t>
         </is>
@@ -4977,10 +4174,7 @@
       <c r="C251">
         <v>8.529999999999999</v>
       </c>
-      <c r="F251">
-        <v>8.529999999999999</v>
-      </c>
-      <c r="H251" t="inlineStr">
+      <c r="G251" t="inlineStr">
         <is>
           <t>generation</t>
         </is>
@@ -4995,10 +4189,7 @@
       <c r="C252">
         <v>8.529999999999999</v>
       </c>
-      <c r="F252">
-        <v>8.529999999999999</v>
-      </c>
-      <c r="H252" t="inlineStr">
+      <c r="G252" t="inlineStr">
         <is>
           <t>microscopic</t>
         </is>
@@ -5013,10 +4204,7 @@
       <c r="C253">
         <v>8.529999999999999</v>
       </c>
-      <c r="F253">
-        <v>8.529999999999999</v>
-      </c>
-      <c r="H253" t="inlineStr">
+      <c r="G253" t="inlineStr">
         <is>
           <t>government</t>
         </is>
@@ -5031,10 +4219,7 @@
       <c r="C254">
         <v>8.529999999999999</v>
       </c>
-      <c r="F254">
-        <v>8.529999999999999</v>
-      </c>
-      <c r="H254" t="inlineStr">
+      <c r="G254" t="inlineStr">
         <is>
           <t>tittle-tattle</t>
         </is>
@@ -5049,10 +4234,7 @@
       <c r="C255">
         <v>8.529999999999999</v>
       </c>
-      <c r="F255">
-        <v>8.529999999999999</v>
-      </c>
-      <c r="H255" t="inlineStr">
+      <c r="G255" t="inlineStr">
         <is>
           <t>incident</t>
         </is>
@@ -5067,10 +4249,7 @@
       <c r="C256">
         <v>8.539999999999999</v>
       </c>
-      <c r="F256">
-        <v>8.539999999999999</v>
-      </c>
-      <c r="H256" t="inlineStr">
+      <c r="G256" t="inlineStr">
         <is>
           <t>affect</t>
         </is>
@@ -5085,10 +4264,7 @@
       <c r="C257">
         <v>8.539999999999999</v>
       </c>
-      <c r="F257">
-        <v>8.539999999999999</v>
-      </c>
-      <c r="H257" t="inlineStr">
+      <c r="G257" t="inlineStr">
         <is>
           <t>season</t>
         </is>
@@ -5103,10 +4279,7 @@
       <c r="C258">
         <v>8.56</v>
       </c>
-      <c r="F258">
-        <v>8.56</v>
-      </c>
-      <c r="H258" t="inlineStr">
+      <c r="G258" t="inlineStr">
         <is>
           <t>aroma</t>
         </is>
@@ -5121,10 +4294,7 @@
       <c r="C259">
         <v>8.56</v>
       </c>
-      <c r="F259">
-        <v>8.56</v>
-      </c>
-      <c r="H259" t="inlineStr">
+      <c r="G259" t="inlineStr">
         <is>
           <t>report</t>
         </is>
@@ -5139,10 +4309,7 @@
       <c r="C260">
         <v>8.56</v>
       </c>
-      <c r="F260">
-        <v>8.56</v>
-      </c>
-      <c r="H260" t="inlineStr">
+      <c r="G260" t="inlineStr">
         <is>
           <t>gladiator</t>
         </is>
@@ -5157,10 +4324,7 @@
       <c r="C261">
         <v>8.57</v>
       </c>
-      <c r="F261">
-        <v>8.57</v>
-      </c>
-      <c r="H261" t="inlineStr">
+      <c r="G261" t="inlineStr">
         <is>
           <t>fashion</t>
         </is>
@@ -5175,10 +4339,7 @@
       <c r="C262">
         <v>8.57</v>
       </c>
-      <c r="F262">
-        <v>8.57</v>
-      </c>
-      <c r="H262" t="inlineStr">
+      <c r="G262" t="inlineStr">
         <is>
           <t>parade</t>
         </is>
@@ -5193,10 +4354,7 @@
       <c r="C263">
         <v>8.58</v>
       </c>
-      <c r="F263">
-        <v>8.58</v>
-      </c>
-      <c r="H263" t="inlineStr">
+      <c r="G263" t="inlineStr">
         <is>
           <t>action</t>
         </is>
@@ -5211,10 +4369,7 @@
       <c r="C264">
         <v>8.58</v>
       </c>
-      <c r="F264">
-        <v>8.58</v>
-      </c>
-      <c r="H264" t="inlineStr">
+      <c r="G264" t="inlineStr">
         <is>
           <t>accept</t>
         </is>
@@ -5229,10 +4384,7 @@
       <c r="C265">
         <v>8.58</v>
       </c>
-      <c r="F265">
-        <v>8.58</v>
-      </c>
-      <c r="H265" t="inlineStr">
+      <c r="G265" t="inlineStr">
         <is>
           <t>radio operator</t>
         </is>
@@ -5247,10 +4399,7 @@
       <c r="C266">
         <v>8.58</v>
       </c>
-      <c r="F266">
-        <v>8.58</v>
-      </c>
-      <c r="H266" t="inlineStr">
+      <c r="G266" t="inlineStr">
         <is>
           <t>reign</t>
         </is>
@@ -5265,10 +4414,7 @@
       <c r="C267">
         <v>8.58</v>
       </c>
-      <c r="F267">
-        <v>8.58</v>
-      </c>
-      <c r="H267" t="inlineStr">
+      <c r="G267" t="inlineStr">
         <is>
           <t>liquid manure</t>
         </is>
@@ -5280,19 +4426,13 @@
           <t>journalist</t>
         </is>
       </c>
-      <c r="B268">
-        <v>23.27</v>
-      </c>
       <c r="C268">
         <v>8.58</v>
       </c>
       <c r="D268">
-        <v>5.65</v>
-      </c>
-      <c r="F268">
-        <v>8.58</v>
-      </c>
-      <c r="H268" t="inlineStr">
+        <v>23.27</v>
+      </c>
+      <c r="G268" t="inlineStr">
         <is>
           <t>journalist</t>
         </is>
@@ -5307,10 +4447,7 @@
       <c r="C269">
         <v>8.58</v>
       </c>
-      <c r="F269">
-        <v>8.58</v>
-      </c>
-      <c r="H269" t="inlineStr">
+      <c r="G269" t="inlineStr">
         <is>
           <t>press</t>
         </is>
@@ -5325,10 +4462,7 @@
       <c r="C270">
         <v>8.58</v>
       </c>
-      <c r="F270">
-        <v>8.58</v>
-      </c>
-      <c r="H270" t="inlineStr">
+      <c r="G270" t="inlineStr">
         <is>
           <t>fiction</t>
         </is>
@@ -5343,10 +4477,7 @@
       <c r="C271">
         <v>8.58</v>
       </c>
-      <c r="F271">
-        <v>8.58</v>
-      </c>
-      <c r="H271" t="inlineStr">
+      <c r="G271" t="inlineStr">
         <is>
           <t>disaster</t>
         </is>
@@ -5361,10 +4492,7 @@
       <c r="C272">
         <v>8.58</v>
       </c>
-      <c r="F272">
-        <v>8.58</v>
-      </c>
-      <c r="H272" t="inlineStr">
+      <c r="G272" t="inlineStr">
         <is>
           <t>pretext</t>
         </is>
@@ -5379,10 +4507,7 @@
       <c r="C273">
         <v>8.59</v>
       </c>
-      <c r="F273">
-        <v>8.59</v>
-      </c>
-      <c r="H273" t="inlineStr">
+      <c r="G273" t="inlineStr">
         <is>
           <t>widen</t>
         </is>
@@ -5397,10 +4522,7 @@
       <c r="C274">
         <v>8.59</v>
       </c>
-      <c r="F274">
-        <v>8.59</v>
-      </c>
-      <c r="H274" t="inlineStr">
+      <c r="G274" t="inlineStr">
         <is>
           <t>farmhouse</t>
         </is>
@@ -5412,19 +4534,13 @@
           <t>ingenieur</t>
         </is>
       </c>
-      <c r="B275">
-        <v>18.81</v>
-      </c>
       <c r="C275">
         <v>8.59</v>
       </c>
       <c r="D275">
-        <v>5</v>
-      </c>
-      <c r="F275">
-        <v>8.59</v>
-      </c>
-      <c r="H275" t="inlineStr">
+        <v>18.81</v>
+      </c>
+      <c r="G275" t="inlineStr">
         <is>
           <t>engineer</t>
         </is>
@@ -5439,10 +4555,7 @@
       <c r="C276">
         <v>8.6</v>
       </c>
-      <c r="F276">
-        <v>8.6</v>
-      </c>
-      <c r="H276" t="inlineStr">
+      <c r="G276" t="inlineStr">
         <is>
           <t>nobility</t>
         </is>
@@ -5457,10 +4570,7 @@
       <c r="C277">
         <v>8.6</v>
       </c>
-      <c r="F277">
-        <v>8.6</v>
-      </c>
-      <c r="H277" t="inlineStr">
+      <c r="G277" t="inlineStr">
         <is>
           <t>brilliant</t>
         </is>
@@ -5475,10 +4585,7 @@
       <c r="C278">
         <v>8.6</v>
       </c>
-      <c r="F278">
-        <v>8.6</v>
-      </c>
-      <c r="H278" t="inlineStr">
+      <c r="G278" t="inlineStr">
         <is>
           <t>thicket</t>
         </is>
@@ -5493,10 +4600,7 @@
       <c r="C279">
         <v>8.6</v>
       </c>
-      <c r="F279">
-        <v>8.6</v>
-      </c>
-      <c r="H279" t="inlineStr">
+      <c r="G279" t="inlineStr">
         <is>
           <t>zeal</t>
         </is>
@@ -5511,10 +4615,7 @@
       <c r="C280">
         <v>8.6</v>
       </c>
-      <c r="F280">
-        <v>8.6</v>
-      </c>
-      <c r="H280" t="inlineStr">
+      <c r="G280" t="inlineStr">
         <is>
           <t>element</t>
         </is>
@@ -5529,10 +4630,7 @@
       <c r="C281">
         <v>8.6</v>
       </c>
-      <c r="F281">
-        <v>8.6</v>
-      </c>
-      <c r="H281" t="inlineStr">
+      <c r="G281" t="inlineStr">
         <is>
           <t>premiere</t>
         </is>
@@ -5547,10 +4645,7 @@
       <c r="C282">
         <v>8.609999999999999</v>
       </c>
-      <c r="F282">
-        <v>8.609999999999999</v>
-      </c>
-      <c r="H282" t="inlineStr">
+      <c r="G282" t="inlineStr">
         <is>
           <t>vow</t>
         </is>
@@ -5565,10 +4660,7 @@
       <c r="C283">
         <v>8.609999999999999</v>
       </c>
-      <c r="F283">
-        <v>8.609999999999999</v>
-      </c>
-      <c r="H283" t="inlineStr">
+      <c r="G283" t="inlineStr">
         <is>
           <t>sentence</t>
         </is>
@@ -5583,10 +4675,7 @@
       <c r="C284">
         <v>8.609999999999999</v>
       </c>
-      <c r="F284">
-        <v>8.609999999999999</v>
-      </c>
-      <c r="H284" t="inlineStr">
+      <c r="G284" t="inlineStr">
         <is>
           <t>ceremony</t>
         </is>
@@ -5601,10 +4690,7 @@
       <c r="C285">
         <v>8.619999999999999</v>
       </c>
-      <c r="F285">
-        <v>8.619999999999999</v>
-      </c>
-      <c r="H285" t="inlineStr">
+      <c r="G285" t="inlineStr">
         <is>
           <t>strain</t>
         </is>
@@ -5619,10 +4705,7 @@
       <c r="C286">
         <v>8.630000000000001</v>
       </c>
-      <c r="F286">
-        <v>8.630000000000001</v>
-      </c>
-      <c r="H286" t="inlineStr">
+      <c r="G286" t="inlineStr">
         <is>
           <t>sensitive</t>
         </is>
@@ -5637,10 +4720,7 @@
       <c r="C287">
         <v>8.630000000000001</v>
       </c>
-      <c r="F287">
-        <v>8.630000000000001</v>
-      </c>
-      <c r="H287" t="inlineStr">
+      <c r="G287" t="inlineStr">
         <is>
           <t>oral presentation</t>
         </is>
@@ -5655,10 +4735,7 @@
       <c r="C288">
         <v>8.640000000000001</v>
       </c>
-      <c r="F288">
-        <v>8.640000000000001</v>
-      </c>
-      <c r="H288" t="inlineStr">
+      <c r="G288" t="inlineStr">
         <is>
           <t>education</t>
         </is>
@@ -5673,10 +4750,7 @@
       <c r="C289">
         <v>8.640000000000001</v>
       </c>
-      <c r="F289">
-        <v>8.640000000000001</v>
-      </c>
-      <c r="H289" t="inlineStr">
+      <c r="G289" t="inlineStr">
         <is>
           <t>bronze</t>
         </is>
@@ -5691,10 +4765,7 @@
       <c r="C290">
         <v>8.640000000000001</v>
       </c>
-      <c r="F290">
-        <v>8.640000000000001</v>
-      </c>
-      <c r="H290" t="inlineStr">
+      <c r="G290" t="inlineStr">
         <is>
           <t>relaxation</t>
         </is>
@@ -5709,10 +4780,7 @@
       <c r="C291">
         <v>8.640000000000001</v>
       </c>
-      <c r="F291">
-        <v>8.640000000000001</v>
-      </c>
-      <c r="H291" t="inlineStr">
+      <c r="G291" t="inlineStr">
         <is>
           <t>massage</t>
         </is>
@@ -5727,10 +4795,7 @@
       <c r="C292">
         <v>8.640000000000001</v>
       </c>
-      <c r="F292">
-        <v>8.640000000000001</v>
-      </c>
-      <c r="H292" t="inlineStr">
+      <c r="G292" t="inlineStr">
         <is>
           <t>professor</t>
         </is>
@@ -5745,10 +4810,7 @@
       <c r="C293">
         <v>8.65</v>
       </c>
-      <c r="F293">
-        <v>8.65</v>
-      </c>
-      <c r="H293" t="inlineStr">
+      <c r="G293" t="inlineStr">
         <is>
           <t>carrion</t>
         </is>
@@ -5763,10 +4825,7 @@
       <c r="C294">
         <v>8.65</v>
       </c>
-      <c r="F294">
-        <v>8.65</v>
-      </c>
-      <c r="H294" t="inlineStr">
+      <c r="G294" t="inlineStr">
         <is>
           <t>cover</t>
         </is>
@@ -5781,10 +4840,7 @@
       <c r="C295">
         <v>8.65</v>
       </c>
-      <c r="F295">
-        <v>8.65</v>
-      </c>
-      <c r="H295" t="inlineStr">
+      <c r="G295" t="inlineStr">
         <is>
           <t>acquire</t>
         </is>
@@ -5799,10 +4855,7 @@
       <c r="C296">
         <v>8.65</v>
       </c>
-      <c r="F296">
-        <v>8.65</v>
-      </c>
-      <c r="H296" t="inlineStr">
+      <c r="G296" t="inlineStr">
         <is>
           <t>conflict</t>
         </is>
@@ -5817,10 +4870,7 @@
       <c r="C297">
         <v>8.65</v>
       </c>
-      <c r="F297">
-        <v>8.65</v>
-      </c>
-      <c r="H297" t="inlineStr">
+      <c r="G297" t="inlineStr">
         <is>
           <t>apprentice</t>
         </is>
@@ -5835,10 +4885,7 @@
       <c r="C298">
         <v>8.65</v>
       </c>
-      <c r="F298">
-        <v>8.65</v>
-      </c>
-      <c r="H298" t="inlineStr">
+      <c r="G298" t="inlineStr">
         <is>
           <t>post</t>
         </is>
@@ -5850,19 +4897,13 @@
           <t>cello</t>
         </is>
       </c>
-      <c r="B299">
-        <v>1.01</v>
-      </c>
       <c r="C299">
         <v>8.67</v>
       </c>
       <c r="D299">
-        <v>5</v>
-      </c>
-      <c r="F299">
-        <v>8.67</v>
-      </c>
-      <c r="H299" t="inlineStr">
+        <v>1.01</v>
+      </c>
+      <c r="G299" t="inlineStr">
         <is>
           <t>cello</t>
         </is>
@@ -5877,10 +4918,7 @@
       <c r="C300">
         <v>8.67</v>
       </c>
-      <c r="F300">
-        <v>8.67</v>
-      </c>
-      <c r="H300" t="inlineStr">
+      <c r="G300" t="inlineStr">
         <is>
           <t>discipline</t>
         </is>
@@ -5895,10 +4933,7 @@
       <c r="C301">
         <v>8.67</v>
       </c>
-      <c r="F301">
-        <v>8.67</v>
-      </c>
-      <c r="H301" t="inlineStr">
+      <c r="G301" t="inlineStr">
         <is>
           <t>influence</t>
         </is>
@@ -5913,10 +4948,7 @@
       <c r="C302">
         <v>8.67</v>
       </c>
-      <c r="F302">
-        <v>8.67</v>
-      </c>
-      <c r="H302" t="inlineStr">
+      <c r="G302" t="inlineStr">
         <is>
           <t>kitsch</t>
         </is>
@@ -5931,10 +4963,7 @@
       <c r="C303">
         <v>8.67</v>
       </c>
-      <c r="F303">
-        <v>8.67</v>
-      </c>
-      <c r="H303" t="inlineStr">
+      <c r="G303" t="inlineStr">
         <is>
           <t>palette</t>
         </is>
@@ -5949,10 +4978,7 @@
       <c r="C304">
         <v>8.67</v>
       </c>
-      <c r="F304">
-        <v>8.67</v>
-      </c>
-      <c r="H304" t="inlineStr">
+      <c r="G304" t="inlineStr">
         <is>
           <t>checkmate</t>
         </is>
@@ -5967,10 +4993,7 @@
       <c r="C305">
         <v>8.67</v>
       </c>
-      <c r="F305">
-        <v>8.67</v>
-      </c>
-      <c r="H305" t="inlineStr">
+      <c r="G305" t="inlineStr">
         <is>
           <t>unfaithful</t>
         </is>
@@ -5985,10 +5008,7 @@
       <c r="C306">
         <v>8.67</v>
       </c>
-      <c r="F306">
-        <v>8.67</v>
-      </c>
-      <c r="H306" t="inlineStr">
+      <c r="G306" t="inlineStr">
         <is>
           <t>illogical</t>
         </is>
@@ -6003,10 +5023,7 @@
       <c r="C307">
         <v>8.68</v>
       </c>
-      <c r="F307">
-        <v>8.68</v>
-      </c>
-      <c r="H307" t="inlineStr">
+      <c r="G307" t="inlineStr">
         <is>
           <t>object</t>
         </is>
@@ -6021,10 +5038,7 @@
       <c r="C308">
         <v>8.68</v>
       </c>
-      <c r="F308">
-        <v>8.68</v>
-      </c>
-      <c r="H308" t="inlineStr">
+      <c r="G308" t="inlineStr">
         <is>
           <t>python</t>
         </is>
@@ -6036,19 +5050,13 @@
           <t>yacht</t>
         </is>
       </c>
-      <c r="B309">
-        <v>0.68</v>
-      </c>
       <c r="C309">
         <v>8.68</v>
       </c>
       <c r="D309">
-        <v>5.05</v>
-      </c>
-      <c r="F309">
-        <v>8.68</v>
-      </c>
-      <c r="H309" t="inlineStr">
+        <v>0.68</v>
+      </c>
+      <c r="G309" t="inlineStr">
         <is>
           <t>yacht</t>
         </is>
@@ -6063,10 +5071,7 @@
       <c r="C310">
         <v>8.69</v>
       </c>
-      <c r="F310">
-        <v>8.69</v>
-      </c>
-      <c r="H310" t="inlineStr">
+      <c r="G310" t="inlineStr">
         <is>
           <t>honour</t>
         </is>
@@ -6081,10 +5086,7 @@
       <c r="C311">
         <v>8.69</v>
       </c>
-      <c r="F311">
-        <v>8.69</v>
-      </c>
-      <c r="H311" t="inlineStr">
+      <c r="G311" t="inlineStr">
         <is>
           <t>magnificence</t>
         </is>
@@ -6099,10 +5101,7 @@
       <c r="C312">
         <v>8.69</v>
       </c>
-      <c r="F312">
-        <v>8.69</v>
-      </c>
-      <c r="H312" t="inlineStr">
+      <c r="G312" t="inlineStr">
         <is>
           <t>bliss</t>
         </is>
@@ -6117,10 +5116,7 @@
       <c r="C313">
         <v>8.710000000000001</v>
       </c>
-      <c r="F313">
-        <v>8.710000000000001</v>
-      </c>
-      <c r="H313" t="inlineStr">
+      <c r="G313" t="inlineStr">
         <is>
           <t>promote</t>
         </is>
@@ -6135,10 +5131,7 @@
       <c r="C314">
         <v>8.710000000000001</v>
       </c>
-      <c r="F314">
-        <v>8.710000000000001</v>
-      </c>
-      <c r="H314" t="inlineStr">
+      <c r="G314" t="inlineStr">
         <is>
           <t>glacier</t>
         </is>
@@ -6153,10 +5146,7 @@
       <c r="C315">
         <v>8.710000000000001</v>
       </c>
-      <c r="F315">
-        <v>8.710000000000001</v>
-      </c>
-      <c r="H315" t="inlineStr">
+      <c r="G315" t="inlineStr">
         <is>
           <t>jolly glad</t>
         </is>
@@ -6171,10 +5161,7 @@
       <c r="C316">
         <v>8.710000000000001</v>
       </c>
-      <c r="F316">
-        <v>8.710000000000001</v>
-      </c>
-      <c r="H316" t="inlineStr">
+      <c r="G316" t="inlineStr">
         <is>
           <t>hygiene</t>
         </is>
@@ -6189,10 +5176,7 @@
       <c r="C317">
         <v>8.710000000000001</v>
       </c>
-      <c r="F317">
-        <v>8.710000000000001</v>
-      </c>
-      <c r="H317" t="inlineStr">
+      <c r="G317" t="inlineStr">
         <is>
           <t>course of treatment</t>
         </is>
@@ -6207,10 +5191,7 @@
       <c r="C318">
         <v>8.710000000000001</v>
       </c>
-      <c r="F318">
-        <v>8.710000000000001</v>
-      </c>
-      <c r="H318" t="inlineStr">
+      <c r="G318" t="inlineStr">
         <is>
           <t>mutiny</t>
         </is>
@@ -6225,10 +5206,7 @@
       <c r="C319">
         <v>8.710000000000001</v>
       </c>
-      <c r="F319">
-        <v>8.710000000000001</v>
-      </c>
-      <c r="H319" t="inlineStr">
+      <c r="G319" t="inlineStr">
         <is>
           <t>cell</t>
         </is>
@@ -6243,10 +5221,7 @@
       <c r="C320">
         <v>8.710000000000001</v>
       </c>
-      <c r="F320">
-        <v>8.710000000000001</v>
-      </c>
-      <c r="H320" t="inlineStr">
+      <c r="G320" t="inlineStr">
         <is>
           <t>trouble</t>
         </is>
@@ -6261,10 +5236,7 @@
       <c r="C321">
         <v>8.720000000000001</v>
       </c>
-      <c r="F321">
-        <v>8.720000000000001</v>
-      </c>
-      <c r="H321" t="inlineStr">
+      <c r="G321" t="inlineStr">
         <is>
           <t>regulation</t>
         </is>
@@ -6279,10 +5251,7 @@
       <c r="C322">
         <v>8.720000000000001</v>
       </c>
-      <c r="F322">
-        <v>8.720000000000001</v>
-      </c>
-      <c r="H322" t="inlineStr">
+      <c r="G322" t="inlineStr">
         <is>
           <t>lay off</t>
         </is>
@@ -6297,10 +5266,7 @@
       <c r="C323">
         <v>8.720000000000001</v>
       </c>
-      <c r="F323">
-        <v>8.720000000000001</v>
-      </c>
-      <c r="H323" t="inlineStr">
+      <c r="G323" t="inlineStr">
         <is>
           <t>luxury</t>
         </is>
@@ -6315,10 +5281,7 @@
       <c r="C324">
         <v>8.720000000000001</v>
       </c>
-      <c r="F324">
-        <v>8.720000000000001</v>
-      </c>
-      <c r="H324" t="inlineStr">
+      <c r="G324" t="inlineStr">
         <is>
           <t>mob</t>
         </is>
@@ -6333,10 +5296,7 @@
       <c r="C325">
         <v>8.720000000000001</v>
       </c>
-      <c r="F325">
-        <v>8.720000000000001</v>
-      </c>
-      <c r="H325" t="inlineStr">
+      <c r="G325" t="inlineStr">
         <is>
           <t>indiscriminate</t>
         </is>
@@ -6351,10 +5311,7 @@
       <c r="C326">
         <v>8.73</v>
       </c>
-      <c r="F326">
-        <v>8.73</v>
-      </c>
-      <c r="H326" t="inlineStr">
+      <c r="G326" t="inlineStr">
         <is>
           <t>lousy</t>
         </is>
@@ -6366,19 +5323,13 @@
           <t>anwalt</t>
         </is>
       </c>
-      <c r="B327">
-        <v>15</v>
-      </c>
       <c r="C327">
         <v>8.74</v>
       </c>
       <c r="D327">
-        <v>4.85</v>
-      </c>
-      <c r="F327">
-        <v>8.74</v>
-      </c>
-      <c r="H327" t="inlineStr">
+        <v>15</v>
+      </c>
+      <c r="G327" t="inlineStr">
         <is>
           <t>lawyer</t>
         </is>
@@ -6393,10 +5344,7 @@
       <c r="C328">
         <v>8.74</v>
       </c>
-      <c r="F328">
-        <v>8.74</v>
-      </c>
-      <c r="H328" t="inlineStr">
+      <c r="G328" t="inlineStr">
         <is>
           <t>spread</t>
         </is>
@@ -6408,19 +5356,13 @@
           <t>minirock</t>
         </is>
       </c>
-      <c r="B329">
-        <v>0.21</v>
-      </c>
       <c r="C329">
         <v>8.74</v>
       </c>
       <c r="D329">
-        <v>4.8</v>
-      </c>
-      <c r="F329">
-        <v>8.74</v>
-      </c>
-      <c r="H329" t="inlineStr">
+        <v>0.21</v>
+      </c>
+      <c r="G329" t="inlineStr">
         <is>
           <t>miniskirt</t>
         </is>
@@ -6435,10 +5377,7 @@
       <c r="C330">
         <v>8.74</v>
       </c>
-      <c r="F330">
-        <v>8.74</v>
-      </c>
-      <c r="H330" t="inlineStr">
+      <c r="G330" t="inlineStr">
         <is>
           <t>nerve</t>
         </is>
@@ -6453,10 +5392,7 @@
       <c r="C331">
         <v>8.75</v>
       </c>
-      <c r="F331">
-        <v>8.75</v>
-      </c>
-      <c r="H331" t="inlineStr">
+      <c r="G331" t="inlineStr">
         <is>
           <t>uniform</t>
         </is>
@@ -6471,10 +5407,7 @@
       <c r="C332">
         <v>8.75</v>
       </c>
-      <c r="F332">
-        <v>8.75</v>
-      </c>
-      <c r="H332" t="inlineStr">
+      <c r="G332" t="inlineStr">
         <is>
           <t>plain</t>
         </is>
@@ -6489,10 +5422,7 @@
       <c r="C333">
         <v>8.75</v>
       </c>
-      <c r="F333">
-        <v>8.75</v>
-      </c>
-      <c r="H333" t="inlineStr">
+      <c r="G333" t="inlineStr">
         <is>
           <t>vein</t>
         </is>
@@ -6507,10 +5437,7 @@
       <c r="C334">
         <v>8.75</v>
       </c>
-      <c r="F334">
-        <v>8.75</v>
-      </c>
-      <c r="H334" t="inlineStr">
+      <c r="G334" t="inlineStr">
         <is>
           <t>resistance</t>
         </is>
@@ -6525,10 +5452,7 @@
       <c r="C335">
         <v>8.76</v>
       </c>
-      <c r="F335">
-        <v>8.76</v>
-      </c>
-      <c r="H335" t="inlineStr">
+      <c r="G335" t="inlineStr">
         <is>
           <t>female head doctor</t>
         </is>
@@ -6543,10 +5467,7 @@
       <c r="C336">
         <v>8.76</v>
       </c>
-      <c r="F336">
-        <v>8.76</v>
-      </c>
-      <c r="H336" t="inlineStr">
+      <c r="G336" t="inlineStr">
         <is>
           <t>lesson</t>
         </is>
@@ -6561,10 +5482,7 @@
       <c r="C337">
         <v>8.76</v>
       </c>
-      <c r="F337">
-        <v>8.76</v>
-      </c>
-      <c r="H337" t="inlineStr">
+      <c r="G337" t="inlineStr">
         <is>
           <t>national costume</t>
         </is>
@@ -6579,10 +5497,7 @@
       <c r="C338">
         <v>8.77</v>
       </c>
-      <c r="F338">
-        <v>8.77</v>
-      </c>
-      <c r="H338" t="inlineStr">
+      <c r="G338" t="inlineStr">
         <is>
           <t>athlete</t>
         </is>
@@ -6597,10 +5512,7 @@
       <c r="C339">
         <v>8.77</v>
       </c>
-      <c r="F339">
-        <v>8.77</v>
-      </c>
-      <c r="H339" t="inlineStr">
+      <c r="G339" t="inlineStr">
         <is>
           <t>comic</t>
         </is>
@@ -6615,10 +5527,7 @@
       <c r="C340">
         <v>8.779999999999999</v>
       </c>
-      <c r="F340">
-        <v>8.779999999999999</v>
-      </c>
-      <c r="H340" t="inlineStr">
+      <c r="G340" t="inlineStr">
         <is>
           <t>delicacy</t>
         </is>
@@ -6633,10 +5542,7 @@
       <c r="C341">
         <v>8.779999999999999</v>
       </c>
-      <c r="F341">
-        <v>8.779999999999999</v>
-      </c>
-      <c r="H341" t="inlineStr">
+      <c r="G341" t="inlineStr">
         <is>
           <t>positive</t>
         </is>
@@ -6651,10 +5557,7 @@
       <c r="C342">
         <v>8.779999999999999</v>
       </c>
-      <c r="F342">
-        <v>8.779999999999999</v>
-      </c>
-      <c r="H342" t="inlineStr">
+      <c r="G342" t="inlineStr">
         <is>
           <t>outbid</t>
         </is>
@@ -6669,10 +5572,7 @@
       <c r="C343">
         <v>8.779999999999999</v>
       </c>
-      <c r="F343">
-        <v>8.779999999999999</v>
-      </c>
-      <c r="H343" t="inlineStr">
+      <c r="G343" t="inlineStr">
         <is>
           <t>widower</t>
         </is>
@@ -6687,10 +5587,7 @@
       <c r="C344">
         <v>8.779999999999999</v>
       </c>
-      <c r="F344">
-        <v>8.779999999999999</v>
-      </c>
-      <c r="H344" t="inlineStr">
+      <c r="G344" t="inlineStr">
         <is>
           <t>force</t>
         </is>
@@ -6705,10 +5602,7 @@
       <c r="C345">
         <v>8.789999999999999</v>
       </c>
-      <c r="F345">
-        <v>8.789999999999999</v>
-      </c>
-      <c r="H345" t="inlineStr">
+      <c r="G345" t="inlineStr">
         <is>
           <t>fairness</t>
         </is>
